--- a/data/Novel Coronavirus (2019-nCoV) Cases, provided by JHU CSSE.xlsx
+++ b/data/Novel Coronavirus (2019-nCoV) Cases, provided by JHU CSSE.xlsx
@@ -304,8 +304,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -432,9 +432,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10253,9 +10253,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V369"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E306" sqref="E306"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V369" sqref="V2:V369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10267,6 +10267,9 @@
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="23"/>
+    <col min="9" max="9" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -10291,10 +10294,10 @@
       <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="23" t="s">
         <v>86</v>
       </c>
       <c r="M1" t="str">
@@ -10350,11 +10353,11 @@
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="23">
         <f>VLOOKUP($A2, Map!$B:$D, 2, FALSE)</f>
         <v>31.230399999999999</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="23">
         <f>VLOOKUP($A2, Map!$B:$D, 3, FALSE)</f>
         <v>121.47369999999999</v>
       </c>
@@ -10412,11 +10415,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="23">
         <f>VLOOKUP($A3, Map!$B:$D, 2, FALSE)</f>
         <v>24.880099999999999</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="23">
         <f>VLOOKUP($A3, Map!$B:$D, 3, FALSE)</f>
         <v>102.8329</v>
       </c>
@@ -10474,11 +10477,11 @@
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="23">
         <f>VLOOKUP($A4, Map!$B:$D, 2, FALSE)</f>
         <v>39.904200000000003</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="23">
         <f>VLOOKUP($A4, Map!$B:$D, 3, FALSE)</f>
         <v>116.4074</v>
       </c>
@@ -10536,11 +10539,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="23">
         <f>VLOOKUP($A5, Map!$B:$D, 2, FALSE)</f>
         <v>25.033000000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="23">
         <f>VLOOKUP($A5, Map!$B:$D, 3, FALSE)</f>
         <v>121.5654</v>
       </c>
@@ -10598,11 +10601,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="23">
         <f>VLOOKUP($A6, Map!$B:$D, 2, FALSE)</f>
         <v>43.817100000000003</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="23">
         <f>VLOOKUP($A6, Map!$B:$D, 3, FALSE)</f>
         <v>125.3235</v>
       </c>
@@ -10663,11 +10666,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="23">
         <f>VLOOKUP($A7, Map!$B:$D, 2, FALSE)</f>
         <v>30.572800000000001</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="23">
         <f>VLOOKUP($A7, Map!$B:$D, 3, FALSE)</f>
         <v>104.0668</v>
       </c>
@@ -10725,11 +10728,11 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="23">
         <f>VLOOKUP($A8, Map!$B:$D, 2, FALSE)</f>
         <v>39.343400000000003</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="23">
         <f>VLOOKUP($A8, Map!$B:$D, 3, FALSE)</f>
         <v>117.3616</v>
       </c>
@@ -10787,11 +10790,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="23">
         <f>VLOOKUP($A9, Map!$B:$D, 2, FALSE)</f>
         <v>38.487200000000001</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="23">
         <f>VLOOKUP($A9, Map!$B:$D, 3, FALSE)</f>
         <v>106.23090000000001</v>
       </c>
@@ -10849,11 +10852,11 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="23">
         <f>VLOOKUP($A10, Map!$B:$D, 2, FALSE)</f>
         <v>31.820599999999999</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="23">
         <f>VLOOKUP($A10, Map!$B:$D, 3, FALSE)</f>
         <v>117.2272</v>
       </c>
@@ -10911,11 +10914,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="23">
         <f>VLOOKUP($A11, Map!$B:$D, 2, FALSE)</f>
         <v>36.651200000000003</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="23">
         <f>VLOOKUP($A11, Map!$B:$D, 3, FALSE)</f>
         <v>117.12009999999999</v>
       </c>
@@ -10976,11 +10979,11 @@
       <c r="E12">
         <v>4</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="23">
         <f>VLOOKUP($A12, Map!$B:$D, 2, FALSE)</f>
         <v>23.129100000000001</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="23">
         <f>VLOOKUP($A12, Map!$B:$D, 3, FALSE)</f>
         <v>113.26439999999999</v>
       </c>
@@ -11038,11 +11041,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="23">
         <f>VLOOKUP($A13, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="23">
         <f>VLOOKUP($A13, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -11100,11 +11103,11 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="23">
         <f>VLOOKUP($A14, Map!$B:$D, 2, FALSE)</f>
         <v>28.6829</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="23">
         <f>VLOOKUP($A14, Map!$B:$D, 3, FALSE)</f>
         <v>115.8582</v>
       </c>
@@ -11162,11 +11165,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="23">
         <f>VLOOKUP($A15, Map!$B:$D, 2, FALSE)</f>
         <v>34.746600000000001</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="23">
         <f>VLOOKUP($A15, Map!$B:$D, 3, FALSE)</f>
         <v>113.6253</v>
       </c>
@@ -11227,11 +11230,11 @@
       <c r="E16">
         <v>16</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="23">
         <f>VLOOKUP($A16, Map!$B:$D, 2, FALSE)</f>
         <v>30.274100000000001</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="23">
         <f>VLOOKUP($A16, Map!$B:$D, 3, FALSE)</f>
         <v>120.1551</v>
       </c>
@@ -11289,11 +11292,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="23">
         <f>VLOOKUP($A17, Map!$B:$D, 2, FALSE)</f>
         <v>20.0444</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="23">
         <f>VLOOKUP($A17, Map!$B:$D, 3, FALSE)</f>
         <v>110.1983</v>
       </c>
@@ -11354,11 +11357,11 @@
       <c r="E18">
         <v>11</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="23">
         <f>VLOOKUP($A18, Map!$B:$D, 2, FALSE)</f>
         <v>30.5928</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="23">
         <f>VLOOKUP($A18, Map!$B:$D, 3, FALSE)</f>
         <v>114.30549999999999</v>
       </c>
@@ -11416,11 +11419,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="23">
         <f>VLOOKUP($A19, Map!$B:$D, 2, FALSE)</f>
         <v>28.228200000000001</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="23">
         <f>VLOOKUP($A19, Map!$B:$D, 3, FALSE)</f>
         <v>112.9388</v>
       </c>
@@ -11478,11 +11481,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="23">
         <f>VLOOKUP($A20, Map!$B:$D, 2, FALSE)</f>
         <v>26.6477</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="23">
         <f>VLOOKUP($A20, Map!$B:$D, 3, FALSE)</f>
         <v>106.6302</v>
       </c>
@@ -11540,11 +11543,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="23">
         <f>VLOOKUP($A21, Map!$B:$D, 2, FALSE)</f>
         <v>41.805700000000002</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="23">
         <f>VLOOKUP($A21, Map!$B:$D, 3, FALSE)</f>
         <v>123.4315</v>
       </c>
@@ -11602,11 +11605,11 @@
       <c r="D22">
         <v>5</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="23">
         <f>VLOOKUP($A22, Map!$B:$D, 2, FALSE)</f>
         <v>29.4316</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="23">
         <f>VLOOKUP($A22, Map!$B:$D, 3, FALSE)</f>
         <v>106.9123</v>
       </c>
@@ -11664,11 +11667,11 @@
       <c r="E23">
         <v>117</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="23">
         <f>VLOOKUP($A23, Map!$B:$D, 2, FALSE)</f>
         <v>22.319299999999998</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="23">
         <f>VLOOKUP($A23, Map!$B:$D, 3, FALSE)</f>
         <v>114.1694</v>
       </c>
@@ -11726,11 +11729,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="23">
         <f>VLOOKUP($A24, Map!$B:$D, 2, FALSE)</f>
         <v>45.803800000000003</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="23">
         <f>VLOOKUP($A24, Map!$B:$D, 3, FALSE)</f>
         <v>126.535</v>
       </c>
@@ -11788,11 +11791,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="23">
         <f>VLOOKUP($A25, Map!$B:$D, 2, FALSE)</f>
         <v>35.676200000000001</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="23">
         <f>VLOOKUP($A25, Map!$B:$D, 3, FALSE)</f>
         <v>139.65029999999999</v>
       </c>
@@ -11850,11 +11853,11 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="23">
         <f>VLOOKUP($A26, Map!$B:$D, 2, FALSE)</f>
         <v>13.7563</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="23">
         <f>VLOOKUP($A26, Map!$B:$D, 3, FALSE)</f>
         <v>100.5018</v>
       </c>
@@ -11912,11 +11915,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="23">
         <f>VLOOKUP($A27, Map!$B:$D, 2, FALSE)</f>
         <v>37.566499999999998</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="23">
         <f>VLOOKUP($A27, Map!$B:$D, 3, FALSE)</f>
         <v>126.97799999999999</v>
       </c>
@@ -11974,11 +11977,11 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="23">
         <f>VLOOKUP($A28, Map!$B:$D, 2, FALSE)</f>
         <v>47.751100000000001</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="23">
         <f>VLOOKUP($A28, Map!$B:$D, 3, FALSE)</f>
         <v>-120.74</v>
       </c>
@@ -12039,11 +12042,11 @@
       <c r="E29">
         <v>4</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="23">
         <f>VLOOKUP($A29, Map!$B:$D, 2, FALSE)</f>
         <v>31.820599999999999</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="23">
         <f>VLOOKUP($A29, Map!$B:$D, 3, FALSE)</f>
         <v>117.2272</v>
       </c>
@@ -12101,11 +12104,11 @@
       <c r="D30">
         <v>14</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="23">
         <f>VLOOKUP($A30, Map!$B:$D, 2, FALSE)</f>
         <v>39.904200000000003</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="23">
         <f>VLOOKUP($A30, Map!$B:$D, 3, FALSE)</f>
         <v>116.4074</v>
       </c>
@@ -12163,11 +12166,11 @@
       <c r="D31">
         <v>6</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="23">
         <f>VLOOKUP($A31, Map!$B:$D, 2, FALSE)</f>
         <v>29.4316</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="23">
         <f>VLOOKUP($A31, Map!$B:$D, 3, FALSE)</f>
         <v>106.9123</v>
       </c>
@@ -12225,11 +12228,11 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="23">
         <f>VLOOKUP($A32, Map!$B:$D, 2, FALSE)</f>
         <v>26.0745</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="23">
         <f>VLOOKUP($A32, Map!$B:$D, 3, FALSE)</f>
         <v>119.29649999999999</v>
       </c>
@@ -12284,11 +12287,11 @@
       <c r="C33" s="25">
         <v>43852.5</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="23">
         <f>VLOOKUP($A33, Map!$B:$D, 2, FALSE)</f>
         <v>36.061100000000003</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="23">
         <f>VLOOKUP($A33, Map!$B:$D, 3, FALSE)</f>
         <v>103.8343</v>
       </c>
@@ -12349,11 +12352,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="23">
         <f>VLOOKUP($A34, Map!$B:$D, 2, FALSE)</f>
         <v>23.129100000000001</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="23">
         <f>VLOOKUP($A34, Map!$B:$D, 3, FALSE)</f>
         <v>113.26439999999999</v>
       </c>
@@ -12414,11 +12417,11 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="23">
         <f>VLOOKUP($A35, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="23">
         <f>VLOOKUP($A35, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -12476,11 +12479,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="23">
         <f>VLOOKUP($A36, Map!$B:$D, 2, FALSE)</f>
         <v>26.6477</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="23">
         <f>VLOOKUP($A36, Map!$B:$D, 3, FALSE)</f>
         <v>106.6302</v>
       </c>
@@ -12538,11 +12541,11 @@
       <c r="D37">
         <v>4</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="23">
         <f>VLOOKUP($A37, Map!$B:$D, 2, FALSE)</f>
         <v>20.0444</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="23">
         <f>VLOOKUP($A37, Map!$B:$D, 3, FALSE)</f>
         <v>110.1983</v>
       </c>
@@ -12600,11 +12603,11 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="23">
         <f>VLOOKUP($A38, Map!$B:$D, 2, FALSE)</f>
         <v>38.0428</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="23">
         <f>VLOOKUP($A38, Map!$B:$D, 3, FALSE)</f>
         <v>114.5149</v>
       </c>
@@ -12662,11 +12665,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="23">
         <f>VLOOKUP($A39, Map!$B:$D, 2, FALSE)</f>
         <v>45.803800000000003</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="23">
         <f>VLOOKUP($A39, Map!$B:$D, 3, FALSE)</f>
         <v>126.535</v>
       </c>
@@ -12724,11 +12727,11 @@
       <c r="D40">
         <v>5</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="23">
         <f>VLOOKUP($A40, Map!$B:$D, 2, FALSE)</f>
         <v>34.746600000000001</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="23">
         <f>VLOOKUP($A40, Map!$B:$D, 3, FALSE)</f>
         <v>113.6253</v>
       </c>
@@ -12786,11 +12789,11 @@
       <c r="E41">
         <v>117</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="23">
         <f>VLOOKUP($A41, Map!$B:$D, 2, FALSE)</f>
         <v>22.319299999999998</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="23">
         <f>VLOOKUP($A41, Map!$B:$D, 3, FALSE)</f>
         <v>114.1694</v>
       </c>
@@ -12848,11 +12851,11 @@
       <c r="D42">
         <v>444</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="23">
         <f>VLOOKUP($A42, Map!$B:$D, 2, FALSE)</f>
         <v>30.5928</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="23">
         <f>VLOOKUP($A42, Map!$B:$D, 3, FALSE)</f>
         <v>114.30549999999999</v>
       </c>
@@ -12910,11 +12913,11 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="23">
         <f>VLOOKUP($A43, Map!$B:$D, 2, FALSE)</f>
         <v>28.228200000000001</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="23">
         <f>VLOOKUP($A43, Map!$B:$D, 3, FALSE)</f>
         <v>112.9388</v>
       </c>
@@ -12969,11 +12972,11 @@
       <c r="C44" s="25">
         <v>43852.5</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="23">
         <f>VLOOKUP($A44, Map!$B:$D, 2, FALSE)</f>
         <v>40.842399999999998</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="23">
         <f>VLOOKUP($A44, Map!$B:$D, 3, FALSE)</f>
         <v>111.75</v>
       </c>
@@ -13031,11 +13034,11 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="23">
         <f>VLOOKUP($A45, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="23">
         <f>VLOOKUP($A45, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -13093,11 +13096,11 @@
       <c r="D46">
         <v>2</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="23">
         <f>VLOOKUP($A46, Map!$B:$D, 2, FALSE)</f>
         <v>28.6829</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="23">
         <f>VLOOKUP($A46, Map!$B:$D, 3, FALSE)</f>
         <v>115.8582</v>
       </c>
@@ -13155,11 +13158,11 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="23">
         <f>VLOOKUP($A47, Map!$B:$D, 2, FALSE)</f>
         <v>43.817100000000003</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="23">
         <f>VLOOKUP($A47, Map!$B:$D, 3, FALSE)</f>
         <v>125.3235</v>
       </c>
@@ -13217,11 +13220,11 @@
       <c r="D48">
         <v>2</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="23">
         <f>VLOOKUP($A48, Map!$B:$D, 2, FALSE)</f>
         <v>41.805700000000002</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="23">
         <f>VLOOKUP($A48, Map!$B:$D, 3, FALSE)</f>
         <v>123.4315</v>
       </c>
@@ -13279,11 +13282,11 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="23">
         <f>VLOOKUP($A49, Map!$B:$D, 2, FALSE)</f>
         <v>22.198699999999999</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="23">
         <f>VLOOKUP($A49, Map!$B:$D, 3, FALSE)</f>
         <v>113.54389999999999</v>
       </c>
@@ -13341,11 +13344,11 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="23">
         <f>VLOOKUP($A50, Map!$B:$D, 2, FALSE)</f>
         <v>38.487200000000001</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="23">
         <f>VLOOKUP($A50, Map!$B:$D, 3, FALSE)</f>
         <v>106.23090000000001</v>
       </c>
@@ -13400,11 +13403,11 @@
       <c r="C51" s="25">
         <v>43852.5</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="23">
         <f>VLOOKUP($A51, Map!$B:$D, 2, FALSE)</f>
         <v>36.617100000000001</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="23">
         <f>VLOOKUP($A51, Map!$B:$D, 3, FALSE)</f>
         <v>101.7782</v>
       </c>
@@ -13459,11 +13462,11 @@
       <c r="C52" s="25">
         <v>43852.5</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="23">
         <f>VLOOKUP($A52, Map!$B:$D, 2, FALSE)</f>
         <v>34.3416</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="23">
         <f>VLOOKUP($A52, Map!$B:$D, 3, FALSE)</f>
         <v>108.93980000000001</v>
       </c>
@@ -13521,11 +13524,11 @@
       <c r="D53">
         <v>2</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="23">
         <f>VLOOKUP($A53, Map!$B:$D, 2, FALSE)</f>
         <v>36.651200000000003</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="23">
         <f>VLOOKUP($A53, Map!$B:$D, 3, FALSE)</f>
         <v>117.12009999999999</v>
       </c>
@@ -13586,11 +13589,11 @@
       <c r="E54">
         <v>10</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="23">
         <f>VLOOKUP($A54, Map!$B:$D, 2, FALSE)</f>
         <v>31.230399999999999</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="23">
         <f>VLOOKUP($A54, Map!$B:$D, 3, FALSE)</f>
         <v>121.47369999999999</v>
       </c>
@@ -13648,11 +13651,11 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="23">
         <f>VLOOKUP($A55, Map!$B:$D, 2, FALSE)</f>
         <v>37.870600000000003</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="23">
         <f>VLOOKUP($A55, Map!$B:$D, 3, FALSE)</f>
         <v>112.5489</v>
       </c>
@@ -13713,11 +13716,11 @@
       <c r="E56">
         <v>2</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="23">
         <f>VLOOKUP($A56, Map!$B:$D, 2, FALSE)</f>
         <v>30.572800000000001</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="23">
         <f>VLOOKUP($A56, Map!$B:$D, 3, FALSE)</f>
         <v>104.0668</v>
       </c>
@@ -13775,11 +13778,11 @@
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="23">
         <f>VLOOKUP($A57, Map!$B:$D, 2, FALSE)</f>
         <v>25.033000000000001</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="23">
         <f>VLOOKUP($A57, Map!$B:$D, 3, FALSE)</f>
         <v>121.5654</v>
       </c>
@@ -13837,11 +13840,11 @@
       <c r="D58">
         <v>4</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="23">
         <f>VLOOKUP($A58, Map!$B:$D, 2, FALSE)</f>
         <v>39.343400000000003</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="23">
         <f>VLOOKUP($A58, Map!$B:$D, 3, FALSE)</f>
         <v>117.3616</v>
       </c>
@@ -13896,11 +13899,11 @@
       <c r="C59" s="25">
         <v>43852.5</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="23">
         <f>VLOOKUP($A59, Map!$B:$D, 2, FALSE)</f>
         <v>30.153400000000001</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="23">
         <f>VLOOKUP($A59, Map!$B:$D, 3, FALSE)</f>
         <v>88.787899999999993</v>
       </c>
@@ -13958,11 +13961,11 @@
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="23">
         <f>VLOOKUP($A60, Map!$B:$D, 2, FALSE)</f>
         <v>47.751100000000001</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="23">
         <f>VLOOKUP($A60, Map!$B:$D, 3, FALSE)</f>
         <v>-120.74</v>
       </c>
@@ -14017,11 +14020,11 @@
       <c r="C61" s="25">
         <v>43852.5</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="23">
         <f>VLOOKUP($A61, Map!$B:$D, 2, FALSE)</f>
         <v>43.825600000000001</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="23">
         <f>VLOOKUP($A61, Map!$B:$D, 3, FALSE)</f>
         <v>87.616799999999998</v>
       </c>
@@ -14079,11 +14082,11 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="23">
         <f>VLOOKUP($A62, Map!$B:$D, 2, FALSE)</f>
         <v>24.880099999999999</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="23">
         <f>VLOOKUP($A62, Map!$B:$D, 3, FALSE)</f>
         <v>102.8329</v>
       </c>
@@ -14141,11 +14144,11 @@
       <c r="D63">
         <v>10</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="23">
         <f>VLOOKUP($A63, Map!$B:$D, 2, FALSE)</f>
         <v>30.274100000000001</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="23">
         <f>VLOOKUP($A63, Map!$B:$D, 3, FALSE)</f>
         <v>120.1551</v>
       </c>
@@ -14203,11 +14206,11 @@
       <c r="D64">
         <v>2</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="23">
         <f>VLOOKUP($A64, Map!$B:$D, 2, FALSE)</f>
         <v>35.676200000000001</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="23">
         <f>VLOOKUP($A64, Map!$B:$D, 3, FALSE)</f>
         <v>139.65029999999999</v>
       </c>
@@ -14265,11 +14268,11 @@
       <c r="D65">
         <v>2</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="23">
         <f>VLOOKUP($A65, Map!$B:$D, 2, FALSE)</f>
         <v>13.7563</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="23">
         <f>VLOOKUP($A65, Map!$B:$D, 3, FALSE)</f>
         <v>100.5018</v>
       </c>
@@ -14327,11 +14330,11 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="23">
         <f>VLOOKUP($A66, Map!$B:$D, 2, FALSE)</f>
         <v>37.566499999999998</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="23">
         <f>VLOOKUP($A66, Map!$B:$D, 3, FALSE)</f>
         <v>126.97799999999999</v>
       </c>
@@ -14392,11 +14395,11 @@
       <c r="E67">
         <v>4</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="23">
         <f>VLOOKUP($A67, Map!$B:$D, 2, FALSE)</f>
         <v>31.820599999999999</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="23">
         <f>VLOOKUP($A67, Map!$B:$D, 3, FALSE)</f>
         <v>117.2272</v>
       </c>
@@ -14454,11 +14457,11 @@
       <c r="D68">
         <v>22</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="23">
         <f>VLOOKUP($A68, Map!$B:$D, 2, FALSE)</f>
         <v>39.904200000000003</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="23">
         <f>VLOOKUP($A68, Map!$B:$D, 3, FALSE)</f>
         <v>116.4074</v>
       </c>
@@ -14516,11 +14519,11 @@
       <c r="D69">
         <v>9</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="23">
         <f>VLOOKUP($A69, Map!$B:$D, 2, FALSE)</f>
         <v>29.4316</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="23">
         <f>VLOOKUP($A69, Map!$B:$D, 3, FALSE)</f>
         <v>106.9123</v>
       </c>
@@ -14581,11 +14584,11 @@
       <c r="E70">
         <v>2</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="23">
         <f>VLOOKUP($A70, Map!$B:$D, 2, FALSE)</f>
         <v>26.0745</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="23">
         <f>VLOOKUP($A70, Map!$B:$D, 3, FALSE)</f>
         <v>119.29649999999999</v>
       </c>
@@ -14643,11 +14646,11 @@
       <c r="D71">
         <v>2</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="23">
         <f>VLOOKUP($A71, Map!$B:$D, 2, FALSE)</f>
         <v>36.061100000000003</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="23">
         <f>VLOOKUP($A71, Map!$B:$D, 3, FALSE)</f>
         <v>103.8343</v>
       </c>
@@ -14711,11 +14714,11 @@
       <c r="F72">
         <v>2</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="23">
         <f>VLOOKUP($A72, Map!$B:$D, 2, FALSE)</f>
         <v>23.129100000000001</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="23">
         <f>VLOOKUP($A72, Map!$B:$D, 3, FALSE)</f>
         <v>113.26439999999999</v>
       </c>
@@ -14773,11 +14776,11 @@
       <c r="D73">
         <v>5</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="23">
         <f>VLOOKUP($A73, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="23">
         <f>VLOOKUP($A73, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -14835,11 +14838,11 @@
       <c r="D74">
         <v>3</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="23">
         <f>VLOOKUP($A74, Map!$B:$D, 2, FALSE)</f>
         <v>26.6477</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="23">
         <f>VLOOKUP($A74, Map!$B:$D, 3, FALSE)</f>
         <v>106.6302</v>
       </c>
@@ -14900,11 +14903,11 @@
       <c r="E75">
         <v>32</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="23">
         <f>VLOOKUP($A75, Map!$B:$D, 2, FALSE)</f>
         <v>20.0444</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="23">
         <f>VLOOKUP($A75, Map!$B:$D, 3, FALSE)</f>
         <v>110.1983</v>
       </c>
@@ -14965,11 +14968,11 @@
       <c r="G76">
         <v>1</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="23">
         <f>VLOOKUP($A76, Map!$B:$D, 2, FALSE)</f>
         <v>38.0428</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="23">
         <f>VLOOKUP($A76, Map!$B:$D, 3, FALSE)</f>
         <v>114.5149</v>
       </c>
@@ -15027,11 +15030,11 @@
       <c r="D77">
         <v>2</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="23">
         <f>VLOOKUP($A77, Map!$B:$D, 2, FALSE)</f>
         <v>45.803800000000003</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="23">
         <f>VLOOKUP($A77, Map!$B:$D, 3, FALSE)</f>
         <v>126.535</v>
       </c>
@@ -15089,11 +15092,11 @@
       <c r="D78">
         <v>5</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="23">
         <f>VLOOKUP($A78, Map!$B:$D, 2, FALSE)</f>
         <v>34.746600000000001</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="23">
         <f>VLOOKUP($A78, Map!$B:$D, 3, FALSE)</f>
         <v>113.6253</v>
       </c>
@@ -15154,11 +15157,11 @@
       <c r="E79">
         <v>65</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="23">
         <f>VLOOKUP($A79, Map!$B:$D, 2, FALSE)</f>
         <v>22.319299999999998</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="23">
         <f>VLOOKUP($A79, Map!$B:$D, 3, FALSE)</f>
         <v>114.1694</v>
       </c>
@@ -15222,11 +15225,11 @@
       <c r="G80">
         <v>17</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="23">
         <f>VLOOKUP($A80, Map!$B:$D, 2, FALSE)</f>
         <v>30.5928</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="23">
         <f>VLOOKUP($A80, Map!$B:$D, 3, FALSE)</f>
         <v>114.30549999999999</v>
       </c>
@@ -15284,11 +15287,11 @@
       <c r="D81">
         <v>9</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="23">
         <f>VLOOKUP($A81, Map!$B:$D, 2, FALSE)</f>
         <v>28.228200000000001</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="23">
         <f>VLOOKUP($A81, Map!$B:$D, 3, FALSE)</f>
         <v>112.9388</v>
       </c>
@@ -15346,11 +15349,11 @@
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="23">
         <f>VLOOKUP($A82, Map!$B:$D, 2, FALSE)</f>
         <v>40.842399999999998</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="23">
         <f>VLOOKUP($A82, Map!$B:$D, 3, FALSE)</f>
         <v>111.75</v>
       </c>
@@ -15408,11 +15411,11 @@
       <c r="D83">
         <v>5</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="23">
         <f>VLOOKUP($A83, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="23">
         <f>VLOOKUP($A83, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -15470,11 +15473,11 @@
       <c r="D84">
         <v>7</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="23">
         <f>VLOOKUP($A84, Map!$B:$D, 2, FALSE)</f>
         <v>28.6829</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="23">
         <f>VLOOKUP($A84, Map!$B:$D, 3, FALSE)</f>
         <v>115.8582</v>
       </c>
@@ -15532,11 +15535,11 @@
       <c r="D85">
         <v>1</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="23">
         <f>VLOOKUP($A85, Map!$B:$D, 2, FALSE)</f>
         <v>43.817100000000003</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="23">
         <f>VLOOKUP($A85, Map!$B:$D, 3, FALSE)</f>
         <v>125.3235</v>
       </c>
@@ -15594,11 +15597,11 @@
       <c r="D86">
         <v>3</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="23">
         <f>VLOOKUP($A86, Map!$B:$D, 2, FALSE)</f>
         <v>41.805700000000002</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="23">
         <f>VLOOKUP($A86, Map!$B:$D, 3, FALSE)</f>
         <v>123.4315</v>
       </c>
@@ -15656,11 +15659,11 @@
       <c r="D87">
         <v>2</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="23">
         <f>VLOOKUP($A87, Map!$B:$D, 2, FALSE)</f>
         <v>22.198699999999999</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="23">
         <f>VLOOKUP($A87, Map!$B:$D, 3, FALSE)</f>
         <v>113.54389999999999</v>
       </c>
@@ -15718,11 +15721,11 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="23">
         <f>VLOOKUP($A88, Map!$B:$D, 2, FALSE)</f>
         <v>38.487200000000001</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="23">
         <f>VLOOKUP($A88, Map!$B:$D, 3, FALSE)</f>
         <v>106.23090000000001</v>
       </c>
@@ -15777,11 +15780,11 @@
       <c r="C89" s="25">
         <v>43853.5</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="23">
         <f>VLOOKUP($A89, Map!$B:$D, 2, FALSE)</f>
         <v>36.617100000000001</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="23">
         <f>VLOOKUP($A89, Map!$B:$D, 3, FALSE)</f>
         <v>101.7782</v>
       </c>
@@ -15842,11 +15845,11 @@
       <c r="E90">
         <v>1</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="23">
         <f>VLOOKUP($A90, Map!$B:$D, 2, FALSE)</f>
         <v>34.3416</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="23">
         <f>VLOOKUP($A90, Map!$B:$D, 3, FALSE)</f>
         <v>108.93980000000001</v>
       </c>
@@ -15907,11 +15910,11 @@
       <c r="E91">
         <v>2</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="23">
         <f>VLOOKUP($A91, Map!$B:$D, 2, FALSE)</f>
         <v>36.651200000000003</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="23">
         <f>VLOOKUP($A91, Map!$B:$D, 3, FALSE)</f>
         <v>117.12009999999999</v>
       </c>
@@ -15972,11 +15975,11 @@
       <c r="E92">
         <v>22</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="23">
         <f>VLOOKUP($A92, Map!$B:$D, 2, FALSE)</f>
         <v>31.230399999999999</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="23">
         <f>VLOOKUP($A92, Map!$B:$D, 3, FALSE)</f>
         <v>121.47369999999999</v>
       </c>
@@ -16034,11 +16037,11 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="23">
         <f>VLOOKUP($A93, Map!$B:$D, 2, FALSE)</f>
         <v>37.870600000000003</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="23">
         <f>VLOOKUP($A93, Map!$B:$D, 3, FALSE)</f>
         <v>112.5489</v>
       </c>
@@ -16099,11 +16102,11 @@
       <c r="E94">
         <v>2</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="23">
         <f>VLOOKUP($A94, Map!$B:$D, 2, FALSE)</f>
         <v>30.572800000000001</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="23">
         <f>VLOOKUP($A94, Map!$B:$D, 3, FALSE)</f>
         <v>104.0668</v>
       </c>
@@ -16161,11 +16164,11 @@
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="23">
         <f>VLOOKUP($A95, Map!$B:$D, 2, FALSE)</f>
         <v>25.033000000000001</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="23">
         <f>VLOOKUP($A95, Map!$B:$D, 3, FALSE)</f>
         <v>121.5654</v>
       </c>
@@ -16223,11 +16226,11 @@
       <c r="D96">
         <v>4</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="23">
         <f>VLOOKUP($A96, Map!$B:$D, 2, FALSE)</f>
         <v>39.343400000000003</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="23">
         <f>VLOOKUP($A96, Map!$B:$D, 3, FALSE)</f>
         <v>117.3616</v>
       </c>
@@ -16282,11 +16285,11 @@
       <c r="C97" s="25">
         <v>43853.5</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="23">
         <f>VLOOKUP($A97, Map!$B:$D, 2, FALSE)</f>
         <v>30.153400000000001</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="23">
         <f>VLOOKUP($A97, Map!$B:$D, 3, FALSE)</f>
         <v>88.787899999999993</v>
       </c>
@@ -16344,11 +16347,11 @@
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="23">
         <f>VLOOKUP($A98, Map!$B:$D, 2, FALSE)</f>
         <v>47.751100000000001</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="23">
         <f>VLOOKUP($A98, Map!$B:$D, 3, FALSE)</f>
         <v>-120.74</v>
       </c>
@@ -16406,11 +16409,11 @@
       <c r="D99">
         <v>2</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="23">
         <f>VLOOKUP($A99, Map!$B:$D, 2, FALSE)</f>
         <v>43.825600000000001</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="23">
         <f>VLOOKUP($A99, Map!$B:$D, 3, FALSE)</f>
         <v>87.616799999999998</v>
       </c>
@@ -16468,11 +16471,11 @@
       <c r="D100">
         <v>2</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="23">
         <f>VLOOKUP($A100, Map!$B:$D, 2, FALSE)</f>
         <v>24.880099999999999</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="23">
         <f>VLOOKUP($A100, Map!$B:$D, 3, FALSE)</f>
         <v>102.8329</v>
       </c>
@@ -16530,11 +16533,11 @@
       <c r="D101">
         <v>27</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="23">
         <f>VLOOKUP($A101, Map!$B:$D, 2, FALSE)</f>
         <v>30.274100000000001</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="23">
         <f>VLOOKUP($A101, Map!$B:$D, 3, FALSE)</f>
         <v>120.1551</v>
       </c>
@@ -16592,11 +16595,11 @@
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="23">
         <f>VLOOKUP($A102, Map!$B:$D, 2, FALSE)</f>
         <v>35.676200000000001</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="23">
         <f>VLOOKUP($A102, Map!$B:$D, 3, FALSE)</f>
         <v>139.65029999999999</v>
       </c>
@@ -16654,11 +16657,11 @@
       <c r="D103">
         <v>3</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="23">
         <f>VLOOKUP($A103, Map!$B:$D, 2, FALSE)</f>
         <v>13.7563</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="23">
         <f>VLOOKUP($A103, Map!$B:$D, 3, FALSE)</f>
         <v>100.5018</v>
       </c>
@@ -16716,11 +16719,11 @@
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="23">
         <f>VLOOKUP($A104, Map!$B:$D, 2, FALSE)</f>
         <v>37.566499999999998</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="23">
         <f>VLOOKUP($A104, Map!$B:$D, 3, FALSE)</f>
         <v>126.97799999999999</v>
       </c>
@@ -16778,11 +16781,11 @@
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="23">
         <f>VLOOKUP($A105, Map!$B:$D, 2, FALSE)</f>
         <v>1.3521000000000001</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="23">
         <f>VLOOKUP($A105, Map!$B:$D, 3, FALSE)</f>
         <v>103.8198</v>
       </c>
@@ -16840,11 +16843,11 @@
       <c r="E106">
         <v>4</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="23">
         <f>VLOOKUP($A106, Map!$B:$D, 2, FALSE)</f>
         <v>14.599500000000001</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="23">
         <f>VLOOKUP($A106, Map!$B:$D, 3, FALSE)</f>
         <v>120.9842</v>
       </c>
@@ -16902,11 +16905,11 @@
       <c r="E107">
         <v>4</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="23">
         <f>VLOOKUP($A107, Map!$B:$D, 2, FALSE)</f>
         <v>3.1389999999999998</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="23">
         <f>VLOOKUP($A107, Map!$B:$D, 3, FALSE)</f>
         <v>101.68689999999999</v>
       </c>
@@ -16964,11 +16967,11 @@
       <c r="D108">
         <v>2</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="23">
         <f>VLOOKUP($A108, Map!$B:$D, 2, FALSE)</f>
         <v>21.027799999999999</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="23">
         <f>VLOOKUP($A108, Map!$B:$D, 3, FALSE)</f>
         <v>105.8342</v>
       </c>
@@ -17026,11 +17029,11 @@
       <c r="E109">
         <v>1</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="23">
         <f>VLOOKUP($A109, Map!$B:$D, 2, FALSE)</f>
         <v>-37.813600000000001</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="23">
         <f>VLOOKUP($A109, Map!$B:$D, 3, FALSE)</f>
         <v>144.9631</v>
       </c>
@@ -17088,11 +17091,11 @@
       <c r="E110">
         <v>1</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="23">
         <f>VLOOKUP($A110, Map!$B:$D, 2, FALSE)</f>
         <v>19.432600000000001</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="23">
         <f>VLOOKUP($A110, Map!$B:$D, 3, FALSE)</f>
         <v>-99.133200000000002</v>
       </c>
@@ -17150,11 +17153,11 @@
       <c r="E111">
         <v>1</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="23">
         <f>VLOOKUP($A111, Map!$B:$D, 2, FALSE)</f>
         <v>-15.826700000000001</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="23">
         <f>VLOOKUP($A111, Map!$B:$D, 3, FALSE)</f>
         <v>-47.921799999999998</v>
       </c>
@@ -17212,11 +17215,11 @@
       <c r="E112">
         <v>1</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="23">
         <f>VLOOKUP($A112, Map!$B:$D, 2, FALSE)</f>
         <v>4.7110000000000003</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="23">
         <f>VLOOKUP($A112, Map!$B:$D, 3, FALSE)</f>
         <v>-74.072100000000006</v>
       </c>
@@ -17280,11 +17283,11 @@
       <c r="G113">
         <v>24</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="23">
         <f>VLOOKUP($A113, Map!$B:$D, 2, FALSE)</f>
         <v>30.5928</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="23">
         <f>VLOOKUP($A113, Map!$B:$D, 3, FALSE)</f>
         <v>114.30549999999999</v>
       </c>
@@ -17345,11 +17348,11 @@
       <c r="F114">
         <v>2</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="23">
         <f>VLOOKUP($A114, Map!$B:$D, 2, FALSE)</f>
         <v>23.129100000000001</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="23">
         <f>VLOOKUP($A114, Map!$B:$D, 3, FALSE)</f>
         <v>113.26439999999999</v>
       </c>
@@ -17410,11 +17413,11 @@
       <c r="F115">
         <v>1</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="23">
         <f>VLOOKUP($A115, Map!$B:$D, 2, FALSE)</f>
         <v>30.274100000000001</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="23">
         <f>VLOOKUP($A115, Map!$B:$D, 3, FALSE)</f>
         <v>120.1551</v>
       </c>
@@ -17475,11 +17478,11 @@
       <c r="E116">
         <v>22</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="23">
         <f>VLOOKUP($A116, Map!$B:$D, 2, FALSE)</f>
         <v>39.904200000000003</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="23">
         <f>VLOOKUP($A116, Map!$B:$D, 3, FALSE)</f>
         <v>116.4074</v>
       </c>
@@ -17537,11 +17540,11 @@
       <c r="D117">
         <v>20</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="23">
         <f>VLOOKUP($A117, Map!$B:$D, 2, FALSE)</f>
         <v>31.230399999999999</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="23">
         <f>VLOOKUP($A117, Map!$B:$D, 3, FALSE)</f>
         <v>121.47369999999999</v>
       </c>
@@ -17599,11 +17602,11 @@
       <c r="D118">
         <v>24</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="23">
         <f>VLOOKUP($A118, Map!$B:$D, 2, FALSE)</f>
         <v>28.228200000000001</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="23">
         <f>VLOOKUP($A118, Map!$B:$D, 3, FALSE)</f>
         <v>112.9388</v>
       </c>
@@ -17664,11 +17667,11 @@
       <c r="E119">
         <v>4</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="23">
         <f>VLOOKUP($A119, Map!$B:$D, 2, FALSE)</f>
         <v>31.820599999999999</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="23">
         <f>VLOOKUP($A119, Map!$B:$D, 3, FALSE)</f>
         <v>117.2272</v>
       </c>
@@ -17729,11 +17732,11 @@
       <c r="E120">
         <v>13</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="23">
         <f>VLOOKUP($A120, Map!$B:$D, 2, FALSE)</f>
         <v>29.4316</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="23">
         <f>VLOOKUP($A120, Map!$B:$D, 3, FALSE)</f>
         <v>106.9123</v>
       </c>
@@ -17794,11 +17797,11 @@
       <c r="E121">
         <v>4</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="23">
         <f>VLOOKUP($A121, Map!$B:$D, 2, FALSE)</f>
         <v>30.572800000000001</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="23">
         <f>VLOOKUP($A121, Map!$B:$D, 3, FALSE)</f>
         <v>104.0668</v>
       </c>
@@ -17856,11 +17859,11 @@
       <c r="D122">
         <v>9</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="23">
         <f>VLOOKUP($A122, Map!$B:$D, 2, FALSE)</f>
         <v>36.651200000000003</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="23">
         <f>VLOOKUP($A122, Map!$B:$D, 3, FALSE)</f>
         <v>117.12009999999999</v>
       </c>
@@ -17918,11 +17921,11 @@
       <c r="D123">
         <v>13</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="23">
         <f>VLOOKUP($A123, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="23">
         <f>VLOOKUP($A123, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -17983,11 +17986,11 @@
       <c r="E124">
         <v>2</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="23">
         <f>VLOOKUP($A124, Map!$B:$D, 2, FALSE)</f>
         <v>26.0745</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="23">
         <f>VLOOKUP($A124, Map!$B:$D, 3, FALSE)</f>
         <v>119.29649999999999</v>
       </c>
@@ -18045,11 +18048,11 @@
       <c r="D125">
         <v>9</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="23">
         <f>VLOOKUP($A125, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="23">
         <f>VLOOKUP($A125, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -18107,11 +18110,11 @@
       <c r="D126">
         <v>9</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="23">
         <f>VLOOKUP($A126, Map!$B:$D, 2, FALSE)</f>
         <v>34.746600000000001</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="23">
         <f>VLOOKUP($A126, Map!$B:$D, 3, FALSE)</f>
         <v>113.6253</v>
       </c>
@@ -18172,11 +18175,11 @@
       <c r="E127">
         <v>32</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="23">
         <f>VLOOKUP($A127, Map!$B:$D, 2, FALSE)</f>
         <v>20.0444</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="23">
         <f>VLOOKUP($A127, Map!$B:$D, 3, FALSE)</f>
         <v>110.1983</v>
       </c>
@@ -18234,11 +18237,11 @@
       <c r="D128">
         <v>5</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="23">
         <f>VLOOKUP($A128, Map!$B:$D, 2, FALSE)</f>
         <v>39.343400000000003</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="23">
         <f>VLOOKUP($A128, Map!$B:$D, 3, FALSE)</f>
         <v>117.3616</v>
       </c>
@@ -18296,11 +18299,11 @@
       <c r="D129">
         <v>7</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="23">
         <f>VLOOKUP($A129, Map!$B:$D, 2, FALSE)</f>
         <v>28.6829</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="23">
         <f>VLOOKUP($A129, Map!$B:$D, 3, FALSE)</f>
         <v>115.8582</v>
       </c>
@@ -18358,11 +18361,11 @@
       <c r="D130">
         <v>3</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="23">
         <f>VLOOKUP($A130, Map!$B:$D, 2, FALSE)</f>
         <v>34.3416</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="23">
         <f>VLOOKUP($A130, Map!$B:$D, 3, FALSE)</f>
         <v>108.93980000000001</v>
       </c>
@@ -18420,11 +18423,11 @@
       <c r="D131">
         <v>3</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="23">
         <f>VLOOKUP($A131, Map!$B:$D, 2, FALSE)</f>
         <v>26.6477</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="23">
         <f>VLOOKUP($A131, Map!$B:$D, 3, FALSE)</f>
         <v>106.6302</v>
       </c>
@@ -18482,11 +18485,11 @@
       <c r="D132">
         <v>4</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="23">
         <f>VLOOKUP($A132, Map!$B:$D, 2, FALSE)</f>
         <v>41.805700000000002</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="23">
         <f>VLOOKUP($A132, Map!$B:$D, 3, FALSE)</f>
         <v>123.4315</v>
       </c>
@@ -18547,11 +18550,11 @@
       <c r="E133">
         <v>36</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="23">
         <f>VLOOKUP($A133, Map!$B:$D, 2, FALSE)</f>
         <v>22.319299999999998</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="23">
         <f>VLOOKUP($A133, Map!$B:$D, 3, FALSE)</f>
         <v>114.1694</v>
       </c>
@@ -18612,11 +18615,11 @@
       <c r="G134">
         <v>1</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="23">
         <f>VLOOKUP($A134, Map!$B:$D, 2, FALSE)</f>
         <v>45.803800000000003</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="23">
         <f>VLOOKUP($A134, Map!$B:$D, 3, FALSE)</f>
         <v>126.535</v>
       </c>
@@ -18674,11 +18677,11 @@
       <c r="D135">
         <v>2</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="23">
         <f>VLOOKUP($A135, Map!$B:$D, 2, FALSE)</f>
         <v>22.198699999999999</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="23">
         <f>VLOOKUP($A135, Map!$B:$D, 3, FALSE)</f>
         <v>113.54389999999999</v>
       </c>
@@ -18736,11 +18739,11 @@
       <c r="D136">
         <v>2</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="23">
         <f>VLOOKUP($A136, Map!$B:$D, 2, FALSE)</f>
         <v>43.825600000000001</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="23">
         <f>VLOOKUP($A136, Map!$B:$D, 3, FALSE)</f>
         <v>87.616799999999998</v>
       </c>
@@ -18798,11 +18801,11 @@
       <c r="D137">
         <v>2</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="23">
         <f>VLOOKUP($A137, Map!$B:$D, 2, FALSE)</f>
         <v>36.061100000000003</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="23">
         <f>VLOOKUP($A137, Map!$B:$D, 3, FALSE)</f>
         <v>103.8343</v>
       </c>
@@ -18860,11 +18863,11 @@
       <c r="D138">
         <v>2</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="23">
         <f>VLOOKUP($A138, Map!$B:$D, 2, FALSE)</f>
         <v>24.880099999999999</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="23">
         <f>VLOOKUP($A138, Map!$B:$D, 3, FALSE)</f>
         <v>102.8329</v>
       </c>
@@ -18922,11 +18925,11 @@
       <c r="D139">
         <v>1</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="23">
         <f>VLOOKUP($A139, Map!$B:$D, 2, FALSE)</f>
         <v>25.033000000000001</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="23">
         <f>VLOOKUP($A139, Map!$B:$D, 3, FALSE)</f>
         <v>121.5654</v>
       </c>
@@ -18984,11 +18987,11 @@
       <c r="D140">
         <v>1</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="23">
         <f>VLOOKUP($A140, Map!$B:$D, 2, FALSE)</f>
         <v>37.870600000000003</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="23">
         <f>VLOOKUP($A140, Map!$B:$D, 3, FALSE)</f>
         <v>112.5489</v>
       </c>
@@ -19046,11 +19049,11 @@
       <c r="D141">
         <v>3</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="23">
         <f>VLOOKUP($A141, Map!$B:$D, 2, FALSE)</f>
         <v>43.817100000000003</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="23">
         <f>VLOOKUP($A141, Map!$B:$D, 3, FALSE)</f>
         <v>125.3235</v>
       </c>
@@ -19111,11 +19114,11 @@
       <c r="G142">
         <v>1</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="23">
         <f>VLOOKUP($A142, Map!$B:$D, 2, FALSE)</f>
         <v>38.0428</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="23">
         <f>VLOOKUP($A142, Map!$B:$D, 3, FALSE)</f>
         <v>114.5149</v>
       </c>
@@ -19173,11 +19176,11 @@
       <c r="D143">
         <v>1</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="23">
         <f>VLOOKUP($A143, Map!$B:$D, 2, FALSE)</f>
         <v>38.487200000000001</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="23">
         <f>VLOOKUP($A143, Map!$B:$D, 3, FALSE)</f>
         <v>106.23090000000001</v>
       </c>
@@ -19238,11 +19241,11 @@
       <c r="E144">
         <v>2</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="23">
         <f>VLOOKUP($A144, Map!$B:$D, 2, FALSE)</f>
         <v>40.842399999999998</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="23">
         <f>VLOOKUP($A144, Map!$B:$D, 3, FALSE)</f>
         <v>111.75</v>
       </c>
@@ -19300,11 +19303,11 @@
       <c r="D145">
         <v>1</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="23">
         <f>VLOOKUP($A145, Map!$B:$D, 2, FALSE)</f>
         <v>47.751100000000001</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="23">
         <f>VLOOKUP($A145, Map!$B:$D, 3, FALSE)</f>
         <v>-120.74</v>
       </c>
@@ -19362,11 +19365,11 @@
       <c r="D146">
         <v>2</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="23">
         <f>VLOOKUP($A146, Map!$B:$D, 2, FALSE)</f>
         <v>35.676200000000001</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="23">
         <f>VLOOKUP($A146, Map!$B:$D, 3, FALSE)</f>
         <v>139.65029999999999</v>
       </c>
@@ -19424,11 +19427,11 @@
       <c r="D147">
         <v>4</v>
       </c>
-      <c r="H147">
+      <c r="H147" s="23">
         <f>VLOOKUP($A147, Map!$B:$D, 2, FALSE)</f>
         <v>13.7563</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="23">
         <f>VLOOKUP($A147, Map!$B:$D, 3, FALSE)</f>
         <v>100.5018</v>
       </c>
@@ -19486,11 +19489,11 @@
       <c r="D148">
         <v>1</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="23">
         <f>VLOOKUP($A148, Map!$B:$D, 2, FALSE)</f>
         <v>37.566499999999998</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="23">
         <f>VLOOKUP($A148, Map!$B:$D, 3, FALSE)</f>
         <v>126.97799999999999</v>
       </c>
@@ -19548,11 +19551,11 @@
       <c r="D149">
         <v>1</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="23">
         <f>VLOOKUP($A149, Map!$B:$D, 2, FALSE)</f>
         <v>1.3521000000000001</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="23">
         <f>VLOOKUP($A149, Map!$B:$D, 3, FALSE)</f>
         <v>103.8198</v>
       </c>
@@ -19610,11 +19613,11 @@
       <c r="D150">
         <v>2</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="23">
         <f>VLOOKUP($A150, Map!$B:$D, 2, FALSE)</f>
         <v>21.027799999999999</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="23">
         <f>VLOOKUP($A150, Map!$B:$D, 3, FALSE)</f>
         <v>105.8342</v>
       </c>
@@ -19678,11 +19681,11 @@
       <c r="G151">
         <v>24</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="23">
         <f>VLOOKUP($A151, Map!$B:$D, 2, FALSE)</f>
         <v>30.5928</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="23">
         <f>VLOOKUP($A151, Map!$B:$D, 3, FALSE)</f>
         <v>114.30549999999999</v>
       </c>
@@ -19743,11 +19746,11 @@
       <c r="F152">
         <v>2</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="23">
         <f>VLOOKUP($A152, Map!$B:$D, 2, FALSE)</f>
         <v>23.129100000000001</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="23">
         <f>VLOOKUP($A152, Map!$B:$D, 3, FALSE)</f>
         <v>113.26439999999999</v>
       </c>
@@ -19808,11 +19811,11 @@
       <c r="F153">
         <v>1</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="23">
         <f>VLOOKUP($A153, Map!$B:$D, 2, FALSE)</f>
         <v>30.274100000000001</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="23">
         <f>VLOOKUP($A153, Map!$B:$D, 3, FALSE)</f>
         <v>120.1551</v>
       </c>
@@ -19873,11 +19876,11 @@
       <c r="F154">
         <v>1</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="23">
         <f>VLOOKUP($A154, Map!$B:$D, 2, FALSE)</f>
         <v>39.904200000000003</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="23">
         <f>VLOOKUP($A154, Map!$B:$D, 3, FALSE)</f>
         <v>116.4074</v>
       </c>
@@ -19938,11 +19941,11 @@
       <c r="E155">
         <v>13</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="23">
         <f>VLOOKUP($A155, Map!$B:$D, 2, FALSE)</f>
         <v>29.4316</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="23">
         <f>VLOOKUP($A155, Map!$B:$D, 3, FALSE)</f>
         <v>106.9123</v>
       </c>
@@ -20000,11 +20003,11 @@
       <c r="D156">
         <v>24</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="23">
         <f>VLOOKUP($A156, Map!$B:$D, 2, FALSE)</f>
         <v>28.228200000000001</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="23">
         <f>VLOOKUP($A156, Map!$B:$D, 3, FALSE)</f>
         <v>112.9388</v>
       </c>
@@ -20062,11 +20065,11 @@
       <c r="D157">
         <v>23</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="23">
         <f>VLOOKUP($A157, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="23">
         <f>VLOOKUP($A157, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -20130,11 +20133,11 @@
       <c r="F158">
         <v>1</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="23">
         <f>VLOOKUP($A158, Map!$B:$D, 2, FALSE)</f>
         <v>31.230399999999999</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="23">
         <f>VLOOKUP($A158, Map!$B:$D, 3, FALSE)</f>
         <v>121.47369999999999</v>
       </c>
@@ -20192,11 +20195,11 @@
       <c r="D159">
         <v>18</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="23">
         <f>VLOOKUP($A159, Map!$B:$D, 2, FALSE)</f>
         <v>28.6829</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="23">
         <f>VLOOKUP($A159, Map!$B:$D, 3, FALSE)</f>
         <v>115.8582</v>
       </c>
@@ -20257,11 +20260,11 @@
       <c r="E160">
         <v>4</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="23">
         <f>VLOOKUP($A160, Map!$B:$D, 2, FALSE)</f>
         <v>30.572800000000001</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="23">
         <f>VLOOKUP($A160, Map!$B:$D, 3, FALSE)</f>
         <v>104.0668</v>
       </c>
@@ -20319,11 +20322,11 @@
       <c r="D161">
         <v>15</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="23">
         <f>VLOOKUP($A161, Map!$B:$D, 2, FALSE)</f>
         <v>36.651200000000003</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="23">
         <f>VLOOKUP($A161, Map!$B:$D, 3, FALSE)</f>
         <v>117.12009999999999</v>
       </c>
@@ -20384,11 +20387,11 @@
       <c r="E162">
         <v>4</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="23">
         <f>VLOOKUP($A162, Map!$B:$D, 2, FALSE)</f>
         <v>31.820599999999999</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="23">
         <f>VLOOKUP($A162, Map!$B:$D, 3, FALSE)</f>
         <v>117.2272</v>
       </c>
@@ -20449,11 +20452,11 @@
       <c r="E163">
         <v>2</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="23">
         <f>VLOOKUP($A163, Map!$B:$D, 2, FALSE)</f>
         <v>26.0745</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="23">
         <f>VLOOKUP($A163, Map!$B:$D, 3, FALSE)</f>
         <v>119.29649999999999</v>
       </c>
@@ -20514,11 +20517,11 @@
       <c r="E164">
         <v>42</v>
       </c>
-      <c r="H164">
+      <c r="H164" s="23">
         <f>VLOOKUP($A164, Map!$B:$D, 2, FALSE)</f>
         <v>34.746600000000001</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="23">
         <f>VLOOKUP($A164, Map!$B:$D, 3, FALSE)</f>
         <v>113.6253</v>
       </c>
@@ -20576,11 +20579,11 @@
       <c r="D165">
         <v>9</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="23">
         <f>VLOOKUP($A165, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="23">
         <f>VLOOKUP($A165, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -20641,11 +20644,11 @@
       <c r="E166">
         <v>32</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="23">
         <f>VLOOKUP($A166, Map!$B:$D, 2, FALSE)</f>
         <v>20.0444</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="23">
         <f>VLOOKUP($A166, Map!$B:$D, 3, FALSE)</f>
         <v>110.1983</v>
       </c>
@@ -20703,11 +20706,11 @@
       <c r="D167">
         <v>8</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="23">
         <f>VLOOKUP($A167, Map!$B:$D, 2, FALSE)</f>
         <v>39.343400000000003</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="23">
         <f>VLOOKUP($A167, Map!$B:$D, 3, FALSE)</f>
         <v>117.3616</v>
       </c>
@@ -20765,11 +20768,11 @@
       <c r="D168">
         <v>5</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="23">
         <f>VLOOKUP($A168, Map!$B:$D, 2, FALSE)</f>
         <v>24.880099999999999</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="23">
         <f>VLOOKUP($A168, Map!$B:$D, 3, FALSE)</f>
         <v>102.8329</v>
       </c>
@@ -20827,11 +20830,11 @@
       <c r="D169">
         <v>5</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="23">
         <f>VLOOKUP($A169, Map!$B:$D, 2, FALSE)</f>
         <v>34.3416</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="23">
         <f>VLOOKUP($A169, Map!$B:$D, 3, FALSE)</f>
         <v>108.93980000000001</v>
       </c>
@@ -20892,11 +20895,11 @@
       <c r="G170">
         <v>1</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="23">
         <f>VLOOKUP($A170, Map!$B:$D, 2, FALSE)</f>
         <v>45.803800000000003</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="23">
         <f>VLOOKUP($A170, Map!$B:$D, 3, FALSE)</f>
         <v>126.535</v>
       </c>
@@ -20954,11 +20957,11 @@
       <c r="D171">
         <v>4</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="23">
         <f>VLOOKUP($A171, Map!$B:$D, 2, FALSE)</f>
         <v>41.805700000000002</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="23">
         <f>VLOOKUP($A171, Map!$B:$D, 3, FALSE)</f>
         <v>123.4315</v>
       </c>
@@ -21016,11 +21019,11 @@
       <c r="D172">
         <v>3</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="23">
         <f>VLOOKUP($A172, Map!$B:$D, 2, FALSE)</f>
         <v>26.6477</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="23">
         <f>VLOOKUP($A172, Map!$B:$D, 3, FALSE)</f>
         <v>106.6302</v>
       </c>
@@ -21078,11 +21081,11 @@
       <c r="D173">
         <v>3</v>
       </c>
-      <c r="H173">
+      <c r="H173" s="23">
         <f>VLOOKUP($A173, Map!$B:$D, 2, FALSE)</f>
         <v>43.817100000000003</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="23">
         <f>VLOOKUP($A173, Map!$B:$D, 3, FALSE)</f>
         <v>125.3235</v>
       </c>
@@ -21140,11 +21143,11 @@
       <c r="D174">
         <v>3</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="23">
         <f>VLOOKUP($A174, Map!$B:$D, 2, FALSE)</f>
         <v>25.033000000000001</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="23">
         <f>VLOOKUP($A174, Map!$B:$D, 3, FALSE)</f>
         <v>121.5654</v>
       </c>
@@ -21205,11 +21208,11 @@
       <c r="E175">
         <v>1</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="23">
         <f>VLOOKUP($A175, Map!$B:$D, 2, FALSE)</f>
         <v>38.487200000000001</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="23">
         <f>VLOOKUP($A175, Map!$B:$D, 3, FALSE)</f>
         <v>106.23090000000001</v>
       </c>
@@ -21270,11 +21273,11 @@
       <c r="E176">
         <v>36</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="23">
         <f>VLOOKUP($A176, Map!$B:$D, 2, FALSE)</f>
         <v>22.319299999999998</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="23">
         <f>VLOOKUP($A176, Map!$B:$D, 3, FALSE)</f>
         <v>114.1694</v>
       </c>
@@ -21332,11 +21335,11 @@
       <c r="D177">
         <v>2</v>
       </c>
-      <c r="H177">
+      <c r="H177" s="23">
         <f>VLOOKUP($A177, Map!$B:$D, 2, FALSE)</f>
         <v>22.198699999999999</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="23">
         <f>VLOOKUP($A177, Map!$B:$D, 3, FALSE)</f>
         <v>113.54389999999999</v>
       </c>
@@ -21397,11 +21400,11 @@
       <c r="G178">
         <v>1</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="23">
         <f>VLOOKUP($A178, Map!$B:$D, 2, FALSE)</f>
         <v>38.0428</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="23">
         <f>VLOOKUP($A178, Map!$B:$D, 3, FALSE)</f>
         <v>114.5149</v>
       </c>
@@ -21459,11 +21462,11 @@
       <c r="D179">
         <v>2</v>
       </c>
-      <c r="H179">
+      <c r="H179" s="23">
         <f>VLOOKUP($A179, Map!$B:$D, 2, FALSE)</f>
         <v>36.061100000000003</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="23">
         <f>VLOOKUP($A179, Map!$B:$D, 3, FALSE)</f>
         <v>103.8343</v>
       </c>
@@ -21521,11 +21524,11 @@
       <c r="D180">
         <v>2</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="23">
         <f>VLOOKUP($A180, Map!$B:$D, 2, FALSE)</f>
         <v>43.825600000000001</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="23">
         <f>VLOOKUP($A180, Map!$B:$D, 3, FALSE)</f>
         <v>87.616799999999998</v>
       </c>
@@ -21583,11 +21586,11 @@
       <c r="D181">
         <v>1</v>
       </c>
-      <c r="H181">
+      <c r="H181" s="23">
         <f>VLOOKUP($A181, Map!$B:$D, 2, FALSE)</f>
         <v>37.870600000000003</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="23">
         <f>VLOOKUP($A181, Map!$B:$D, 3, FALSE)</f>
         <v>112.5489</v>
       </c>
@@ -21648,11 +21651,11 @@
       <c r="E182">
         <v>2</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="23">
         <f>VLOOKUP($A182, Map!$B:$D, 2, FALSE)</f>
         <v>40.842399999999998</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="23">
         <f>VLOOKUP($A182, Map!$B:$D, 3, FALSE)</f>
         <v>111.75</v>
       </c>
@@ -21710,11 +21713,11 @@
       <c r="E183">
         <v>1</v>
       </c>
-      <c r="H183">
+      <c r="H183" s="23">
         <f>VLOOKUP($A183, Map!$B:$D, 2, FALSE)</f>
         <v>36.617100000000001</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="23">
         <f>VLOOKUP($A183, Map!$B:$D, 3, FALSE)</f>
         <v>101.7782</v>
       </c>
@@ -21772,11 +21775,11 @@
       <c r="D184">
         <v>1</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="23">
         <f>VLOOKUP($A184, Map!$B:$D, 2, FALSE)</f>
         <v>47.751100000000001</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="23">
         <f>VLOOKUP($A184, Map!$B:$D, 3, FALSE)</f>
         <v>-120.74</v>
       </c>
@@ -21834,11 +21837,11 @@
       <c r="D185">
         <v>1</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="23">
         <f>VLOOKUP($A185, Map!$B:$D, 2, FALSE)</f>
         <v>40.633099999999999</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="23">
         <f>VLOOKUP($A185, Map!$B:$D, 3, FALSE)</f>
         <v>-89.398499999999999</v>
       </c>
@@ -21896,11 +21899,11 @@
       <c r="D186">
         <v>2</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="23">
         <f>VLOOKUP($A186, Map!$B:$D, 2, FALSE)</f>
         <v>35.676200000000001</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="23">
         <f>VLOOKUP($A186, Map!$B:$D, 3, FALSE)</f>
         <v>139.65029999999999</v>
       </c>
@@ -21958,11 +21961,11 @@
       <c r="D187">
         <v>5</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="23">
         <f>VLOOKUP($A187, Map!$B:$D, 2, FALSE)</f>
         <v>13.7563</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="23">
         <f>VLOOKUP($A187, Map!$B:$D, 3, FALSE)</f>
         <v>100.5018</v>
       </c>
@@ -22020,11 +22023,11 @@
       <c r="D188">
         <v>2</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="23">
         <f>VLOOKUP($A188, Map!$B:$D, 2, FALSE)</f>
         <v>37.566499999999998</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="23">
         <f>VLOOKUP($A188, Map!$B:$D, 3, FALSE)</f>
         <v>126.97799999999999</v>
       </c>
@@ -22082,11 +22085,11 @@
       <c r="D189">
         <v>3</v>
       </c>
-      <c r="H189">
+      <c r="H189" s="23">
         <f>VLOOKUP($A189, Map!$B:$D, 2, FALSE)</f>
         <v>1.3521000000000001</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="23">
         <f>VLOOKUP($A189, Map!$B:$D, 3, FALSE)</f>
         <v>103.8198</v>
       </c>
@@ -22144,11 +22147,11 @@
       <c r="D190">
         <v>2</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="23">
         <f>VLOOKUP($A190, Map!$B:$D, 2, FALSE)</f>
         <v>21.027799999999999</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="23">
         <f>VLOOKUP($A190, Map!$B:$D, 3, FALSE)</f>
         <v>105.8342</v>
       </c>
@@ -22206,11 +22209,11 @@
       <c r="D191">
         <v>2</v>
       </c>
-      <c r="H191">
+      <c r="H191" s="23">
         <f>VLOOKUP($A191, Map!$B:$D, 2, FALSE)</f>
         <v>48.8566</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="23">
         <f>VLOOKUP($A191, Map!$B:$D, 3, FALSE)</f>
         <v>2.3521999999999998</v>
       </c>
@@ -22274,11 +22277,11 @@
       <c r="G192">
         <v>39</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="23">
         <f>VLOOKUP($A192, Map!$B:$D, 2, FALSE)</f>
         <v>30.5928</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="23">
         <f>VLOOKUP($A192, Map!$B:$D, 3, FALSE)</f>
         <v>114.30549999999999</v>
       </c>
@@ -22339,11 +22342,11 @@
       <c r="F193">
         <v>2</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="23">
         <f>VLOOKUP($A193, Map!$B:$D, 2, FALSE)</f>
         <v>23.129100000000001</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="23">
         <f>VLOOKUP($A193, Map!$B:$D, 3, FALSE)</f>
         <v>113.26439999999999</v>
       </c>
@@ -22404,11 +22407,11 @@
       <c r="F194">
         <v>1</v>
       </c>
-      <c r="H194">
+      <c r="H194" s="23">
         <f>VLOOKUP($A194, Map!$B:$D, 2, FALSE)</f>
         <v>30.274100000000001</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="23">
         <f>VLOOKUP($A194, Map!$B:$D, 3, FALSE)</f>
         <v>120.1551</v>
       </c>
@@ -22466,11 +22469,11 @@
       <c r="D195">
         <v>57</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="23">
         <f>VLOOKUP($A195, Map!$B:$D, 2, FALSE)</f>
         <v>29.4316</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="23">
         <f>VLOOKUP($A195, Map!$B:$D, 3, FALSE)</f>
         <v>106.9123</v>
       </c>
@@ -22528,11 +22531,11 @@
       <c r="D196">
         <v>43</v>
       </c>
-      <c r="H196">
+      <c r="H196" s="23">
         <f>VLOOKUP($A196, Map!$B:$D, 2, FALSE)</f>
         <v>28.228200000000001</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="23">
         <f>VLOOKUP($A196, Map!$B:$D, 3, FALSE)</f>
         <v>112.9388</v>
       </c>
@@ -22593,11 +22596,11 @@
       <c r="E197">
         <v>4</v>
       </c>
-      <c r="H197">
+      <c r="H197" s="23">
         <f>VLOOKUP($A197, Map!$B:$D, 2, FALSE)</f>
         <v>31.820599999999999</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="23">
         <f>VLOOKUP($A197, Map!$B:$D, 3, FALSE)</f>
         <v>117.2272</v>
       </c>
@@ -22658,11 +22661,11 @@
       <c r="F198">
         <v>1</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="23">
         <f>VLOOKUP($A198, Map!$B:$D, 2, FALSE)</f>
         <v>39.904200000000003</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="23">
         <f>VLOOKUP($A198, Map!$B:$D, 3, FALSE)</f>
         <v>116.4074</v>
       </c>
@@ -22726,11 +22729,11 @@
       <c r="F199">
         <v>1</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="23">
         <f>VLOOKUP($A199, Map!$B:$D, 2, FALSE)</f>
         <v>31.230399999999999</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="23">
         <f>VLOOKUP($A199, Map!$B:$D, 3, FALSE)</f>
         <v>121.47369999999999</v>
       </c>
@@ -22791,11 +22794,11 @@
       <c r="E200">
         <v>1</v>
       </c>
-      <c r="H200">
+      <c r="H200" s="23">
         <f>VLOOKUP($A200, Map!$B:$D, 2, FALSE)</f>
         <v>34.746600000000001</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="23">
         <f>VLOOKUP($A200, Map!$B:$D, 3, FALSE)</f>
         <v>113.6253</v>
       </c>
@@ -22856,11 +22859,11 @@
       <c r="E201">
         <v>4</v>
       </c>
-      <c r="H201">
+      <c r="H201" s="23">
         <f>VLOOKUP($A201, Map!$B:$D, 2, FALSE)</f>
         <v>30.572800000000001</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="23">
         <f>VLOOKUP($A201, Map!$B:$D, 3, FALSE)</f>
         <v>104.0668</v>
       </c>
@@ -22918,11 +22921,11 @@
       <c r="D202">
         <v>23</v>
       </c>
-      <c r="H202">
+      <c r="H202" s="23">
         <f>VLOOKUP($A202, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="23">
         <f>VLOOKUP($A202, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -22980,11 +22983,11 @@
       <c r="D203">
         <v>21</v>
       </c>
-      <c r="H203">
+      <c r="H203" s="23">
         <f>VLOOKUP($A203, Map!$B:$D, 2, FALSE)</f>
         <v>36.651200000000003</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="23">
         <f>VLOOKUP($A203, Map!$B:$D, 3, FALSE)</f>
         <v>117.12009999999999</v>
       </c>
@@ -23042,11 +23045,11 @@
       <c r="D204">
         <v>18</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="23">
         <f>VLOOKUP($A204, Map!$B:$D, 2, FALSE)</f>
         <v>28.6829</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="23">
         <f>VLOOKUP($A204, Map!$B:$D, 3, FALSE)</f>
         <v>115.8582</v>
       </c>
@@ -23107,11 +23110,11 @@
       <c r="F205">
         <v>1</v>
       </c>
-      <c r="H205">
+      <c r="H205" s="23">
         <f>VLOOKUP($A205, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="23">
         <f>VLOOKUP($A205, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -23169,11 +23172,11 @@
       <c r="D206">
         <v>17</v>
       </c>
-      <c r="H206">
+      <c r="H206" s="23">
         <f>VLOOKUP($A206, Map!$B:$D, 2, FALSE)</f>
         <v>20.0444</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="23">
         <f>VLOOKUP($A206, Map!$B:$D, 3, FALSE)</f>
         <v>110.1983</v>
       </c>
@@ -23231,11 +23234,11 @@
       <c r="D207">
         <v>15</v>
       </c>
-      <c r="H207">
+      <c r="H207" s="23">
         <f>VLOOKUP($A207, Map!$B:$D, 2, FALSE)</f>
         <v>41.805700000000002</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="23">
         <f>VLOOKUP($A207, Map!$B:$D, 3, FALSE)</f>
         <v>123.4315</v>
       </c>
@@ -23296,11 +23299,11 @@
       <c r="E208">
         <v>4</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="23">
         <f>VLOOKUP($A208, Map!$B:$D, 2, FALSE)</f>
         <v>26.0745</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="23">
         <f>VLOOKUP($A208, Map!$B:$D, 3, FALSE)</f>
         <v>119.29649999999999</v>
       </c>
@@ -23361,11 +23364,11 @@
       <c r="G209">
         <v>1</v>
       </c>
-      <c r="H209">
+      <c r="H209" s="23">
         <f>VLOOKUP($A209, Map!$B:$D, 2, FALSE)</f>
         <v>45.803800000000003</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="23">
         <f>VLOOKUP($A209, Map!$B:$D, 3, FALSE)</f>
         <v>126.535</v>
       </c>
@@ -23423,11 +23426,11 @@
       <c r="D210">
         <v>8</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="23">
         <f>VLOOKUP($A210, Map!$B:$D, 2, FALSE)</f>
         <v>39.343400000000003</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="23">
         <f>VLOOKUP($A210, Map!$B:$D, 3, FALSE)</f>
         <v>117.3616</v>
       </c>
@@ -23488,11 +23491,11 @@
       <c r="G211">
         <v>1</v>
       </c>
-      <c r="H211">
+      <c r="H211" s="23">
         <f>VLOOKUP($A211, Map!$B:$D, 2, FALSE)</f>
         <v>38.0428</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="23">
         <f>VLOOKUP($A211, Map!$B:$D, 3, FALSE)</f>
         <v>114.5149</v>
       </c>
@@ -23550,11 +23553,11 @@
       <c r="D212">
         <v>6</v>
       </c>
-      <c r="H212">
+      <c r="H212" s="23">
         <f>VLOOKUP($A212, Map!$B:$D, 2, FALSE)</f>
         <v>37.870600000000003</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="23">
         <f>VLOOKUP($A212, Map!$B:$D, 3, FALSE)</f>
         <v>112.5489</v>
       </c>
@@ -23612,11 +23615,11 @@
       <c r="D213">
         <v>5</v>
       </c>
-      <c r="H213">
+      <c r="H213" s="23">
         <f>VLOOKUP($A213, Map!$B:$D, 2, FALSE)</f>
         <v>24.880099999999999</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="23">
         <f>VLOOKUP($A213, Map!$B:$D, 3, FALSE)</f>
         <v>102.8329</v>
       </c>
@@ -23677,11 +23680,11 @@
       <c r="E214">
         <v>36</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="23">
         <f>VLOOKUP($A214, Map!$B:$D, 2, FALSE)</f>
         <v>22.319299999999998</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="23">
         <f>VLOOKUP($A214, Map!$B:$D, 3, FALSE)</f>
         <v>114.1694</v>
       </c>
@@ -23739,11 +23742,11 @@
       <c r="D215">
         <v>5</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="23">
         <f>VLOOKUP($A215, Map!$B:$D, 2, FALSE)</f>
         <v>34.3416</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="23">
         <f>VLOOKUP($A215, Map!$B:$D, 3, FALSE)</f>
         <v>108.93980000000001</v>
       </c>
@@ -23801,11 +23804,11 @@
       <c r="D216">
         <v>4</v>
       </c>
-      <c r="H216">
+      <c r="H216" s="23">
         <f>VLOOKUP($A216, Map!$B:$D, 2, FALSE)</f>
         <v>26.6477</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="23">
         <f>VLOOKUP($A216, Map!$B:$D, 3, FALSE)</f>
         <v>106.6302</v>
       </c>
@@ -23863,11 +23866,11 @@
       <c r="D217">
         <v>4</v>
       </c>
-      <c r="H217">
+      <c r="H217" s="23">
         <f>VLOOKUP($A217, Map!$B:$D, 2, FALSE)</f>
         <v>43.817100000000003</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="23">
         <f>VLOOKUP($A217, Map!$B:$D, 3, FALSE)</f>
         <v>125.3235</v>
       </c>
@@ -23925,11 +23928,11 @@
       <c r="D218">
         <v>4</v>
       </c>
-      <c r="H218">
+      <c r="H218" s="23">
         <f>VLOOKUP($A218, Map!$B:$D, 2, FALSE)</f>
         <v>36.061100000000003</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="23">
         <f>VLOOKUP($A218, Map!$B:$D, 3, FALSE)</f>
         <v>103.8343</v>
       </c>
@@ -23990,11 +23993,11 @@
       <c r="E219">
         <v>1</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="23">
         <f>VLOOKUP($A219, Map!$B:$D, 2, FALSE)</f>
         <v>38.487200000000001</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="23">
         <f>VLOOKUP($A219, Map!$B:$D, 3, FALSE)</f>
         <v>106.23090000000001</v>
       </c>
@@ -24052,11 +24055,11 @@
       <c r="D220">
         <v>3</v>
       </c>
-      <c r="H220">
+      <c r="H220" s="23">
         <f>VLOOKUP($A220, Map!$B:$D, 2, FALSE)</f>
         <v>25.033000000000001</v>
       </c>
-      <c r="I220">
+      <c r="I220" s="23">
         <f>VLOOKUP($A220, Map!$B:$D, 3, FALSE)</f>
         <v>121.5654</v>
       </c>
@@ -24114,11 +24117,11 @@
       <c r="D221">
         <v>3</v>
       </c>
-      <c r="H221">
+      <c r="H221" s="23">
         <f>VLOOKUP($A221, Map!$B:$D, 2, FALSE)</f>
         <v>43.825600000000001</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="23">
         <f>VLOOKUP($A221, Map!$B:$D, 3, FALSE)</f>
         <v>87.616799999999998</v>
       </c>
@@ -24176,11 +24179,11 @@
       <c r="D222">
         <v>2</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="23">
         <f>VLOOKUP($A222, Map!$B:$D, 2, FALSE)</f>
         <v>22.198699999999999</v>
       </c>
-      <c r="I222">
+      <c r="I222" s="23">
         <f>VLOOKUP($A222, Map!$B:$D, 3, FALSE)</f>
         <v>113.54389999999999</v>
       </c>
@@ -24238,11 +24241,11 @@
       <c r="D223">
         <v>2</v>
       </c>
-      <c r="H223">
+      <c r="H223" s="23">
         <f>VLOOKUP($A223, Map!$B:$D, 2, FALSE)</f>
         <v>40.842399999999998</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="23">
         <f>VLOOKUP($A223, Map!$B:$D, 3, FALSE)</f>
         <v>111.75</v>
       </c>
@@ -24300,11 +24303,11 @@
       <c r="E224">
         <v>1</v>
       </c>
-      <c r="H224">
+      <c r="H224" s="23">
         <f>VLOOKUP($A224, Map!$B:$D, 2, FALSE)</f>
         <v>36.617100000000001</v>
       </c>
-      <c r="I224">
+      <c r="I224" s="23">
         <f>VLOOKUP($A224, Map!$B:$D, 3, FALSE)</f>
         <v>101.7782</v>
       </c>
@@ -24362,11 +24365,11 @@
       <c r="D225">
         <v>1</v>
       </c>
-      <c r="H225">
+      <c r="H225" s="23">
         <f>VLOOKUP($A225, Map!$B:$D, 2, FALSE)</f>
         <v>47.751100000000001</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="23">
         <f>VLOOKUP($A225, Map!$B:$D, 3, FALSE)</f>
         <v>-120.74</v>
       </c>
@@ -24424,11 +24427,11 @@
       <c r="D226">
         <v>1</v>
       </c>
-      <c r="H226">
+      <c r="H226" s="23">
         <f>VLOOKUP($A226, Map!$B:$D, 2, FALSE)</f>
         <v>40.633099999999999</v>
       </c>
-      <c r="I226">
+      <c r="I226" s="23">
         <f>VLOOKUP($A226, Map!$B:$D, 3, FALSE)</f>
         <v>-89.398499999999999</v>
       </c>
@@ -24486,11 +24489,11 @@
       <c r="D227">
         <v>2</v>
       </c>
-      <c r="H227">
+      <c r="H227" s="23">
         <f>VLOOKUP($A227, Map!$B:$D, 2, FALSE)</f>
         <v>35.676200000000001</v>
       </c>
-      <c r="I227">
+      <c r="I227" s="23">
         <f>VLOOKUP($A227, Map!$B:$D, 3, FALSE)</f>
         <v>139.65029999999999</v>
       </c>
@@ -24548,11 +24551,11 @@
       <c r="D228">
         <v>5</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="23">
         <f>VLOOKUP($A228, Map!$B:$D, 2, FALSE)</f>
         <v>13.7563</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="23">
         <f>VLOOKUP($A228, Map!$B:$D, 3, FALSE)</f>
         <v>100.5018</v>
       </c>
@@ -24610,11 +24613,11 @@
       <c r="D229">
         <v>2</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="23">
         <f>VLOOKUP($A229, Map!$B:$D, 2, FALSE)</f>
         <v>37.566499999999998</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="23">
         <f>VLOOKUP($A229, Map!$B:$D, 3, FALSE)</f>
         <v>126.97799999999999</v>
       </c>
@@ -24672,11 +24675,11 @@
       <c r="D230">
         <v>3</v>
       </c>
-      <c r="H230">
+      <c r="H230" s="23">
         <f>VLOOKUP($A230, Map!$B:$D, 2, FALSE)</f>
         <v>1.3521000000000001</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="23">
         <f>VLOOKUP($A230, Map!$B:$D, 3, FALSE)</f>
         <v>103.8198</v>
       </c>
@@ -24734,11 +24737,11 @@
       <c r="D231">
         <v>2</v>
       </c>
-      <c r="H231">
+      <c r="H231" s="23">
         <f>VLOOKUP($A231, Map!$B:$D, 2, FALSE)</f>
         <v>21.027799999999999</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="23">
         <f>VLOOKUP($A231, Map!$B:$D, 3, FALSE)</f>
         <v>105.8342</v>
       </c>
@@ -24796,11 +24799,11 @@
       <c r="D232">
         <v>3</v>
       </c>
-      <c r="H232">
+      <c r="H232" s="23">
         <f>VLOOKUP($A232, Map!$B:$D, 2, FALSE)</f>
         <v>48.8566</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="23">
         <f>VLOOKUP($A232, Map!$B:$D, 3, FALSE)</f>
         <v>2.3521999999999998</v>
       </c>
@@ -24858,11 +24861,11 @@
       <c r="D233">
         <v>1</v>
       </c>
-      <c r="H233">
+      <c r="H233" s="23">
         <f>VLOOKUP($A233, Map!$B:$D, 2, FALSE)</f>
         <v>-37.813600000000001</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="23">
         <f>VLOOKUP($A233, Map!$B:$D, 3, FALSE)</f>
         <v>144.9631</v>
       </c>
@@ -24920,11 +24923,11 @@
       <c r="D234">
         <v>1</v>
       </c>
-      <c r="H234">
+      <c r="H234" s="23">
         <f>VLOOKUP($A234, Map!$B:$D, 2, FALSE)</f>
         <v>27.717199999999998</v>
       </c>
-      <c r="I234">
+      <c r="I234" s="23">
         <f>VLOOKUP($A234, Map!$B:$D, 3, FALSE)</f>
         <v>85.323999999999998</v>
       </c>
@@ -24982,11 +24985,11 @@
       <c r="D235">
         <v>3</v>
       </c>
-      <c r="H235">
+      <c r="H235" s="23">
         <f>VLOOKUP($A235, Map!$B:$D, 2, FALSE)</f>
         <v>3.1389999999999998</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="23">
         <f>VLOOKUP($A235, Map!$B:$D, 3, FALSE)</f>
         <v>101.68689999999999</v>
       </c>
@@ -25050,11 +25053,11 @@
       <c r="G236">
         <v>40</v>
       </c>
-      <c r="H236">
+      <c r="H236" s="23">
         <f>VLOOKUP($A236, Map!$B:$D, 2, FALSE)</f>
         <v>30.5928</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="23">
         <f>VLOOKUP($A236, Map!$B:$D, 3, FALSE)</f>
         <v>114.30549999999999</v>
       </c>
@@ -25115,11 +25118,11 @@
       <c r="F237">
         <v>2</v>
       </c>
-      <c r="H237">
+      <c r="H237" s="23">
         <f>VLOOKUP($A237, Map!$B:$D, 2, FALSE)</f>
         <v>23.129100000000001</v>
       </c>
-      <c r="I237">
+      <c r="I237" s="23">
         <f>VLOOKUP($A237, Map!$B:$D, 3, FALSE)</f>
         <v>113.26439999999999</v>
       </c>
@@ -25180,11 +25183,11 @@
       <c r="F238">
         <v>1</v>
       </c>
-      <c r="H238">
+      <c r="H238" s="23">
         <f>VLOOKUP($A238, Map!$B:$D, 2, FALSE)</f>
         <v>30.274100000000001</v>
       </c>
-      <c r="I238">
+      <c r="I238" s="23">
         <f>VLOOKUP($A238, Map!$B:$D, 3, FALSE)</f>
         <v>120.1551</v>
       </c>
@@ -25242,11 +25245,11 @@
       <c r="D239">
         <v>57</v>
       </c>
-      <c r="H239">
+      <c r="H239" s="23">
         <f>VLOOKUP($A239, Map!$B:$D, 2, FALSE)</f>
         <v>29.4316</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="23">
         <f>VLOOKUP($A239, Map!$B:$D, 3, FALSE)</f>
         <v>106.9123</v>
       </c>
@@ -25304,11 +25307,11 @@
       <c r="D240">
         <v>43</v>
       </c>
-      <c r="H240">
+      <c r="H240" s="23">
         <f>VLOOKUP($A240, Map!$B:$D, 2, FALSE)</f>
         <v>28.228200000000001</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="23">
         <f>VLOOKUP($A240, Map!$B:$D, 3, FALSE)</f>
         <v>112.9388</v>
       </c>
@@ -25369,11 +25372,11 @@
       <c r="F241">
         <v>2</v>
       </c>
-      <c r="H241">
+      <c r="H241" s="23">
         <f>VLOOKUP($A241, Map!$B:$D, 2, FALSE)</f>
         <v>39.904200000000003</v>
       </c>
-      <c r="I241">
+      <c r="I241" s="23">
         <f>VLOOKUP($A241, Map!$B:$D, 3, FALSE)</f>
         <v>116.4074</v>
       </c>
@@ -25434,11 +25437,11 @@
       <c r="E242">
         <v>4</v>
       </c>
-      <c r="H242">
+      <c r="H242" s="23">
         <f>VLOOKUP($A242, Map!$B:$D, 2, FALSE)</f>
         <v>31.820599999999999</v>
       </c>
-      <c r="I242">
+      <c r="I242" s="23">
         <f>VLOOKUP($A242, Map!$B:$D, 3, FALSE)</f>
         <v>117.2272</v>
       </c>
@@ -25502,11 +25505,11 @@
       <c r="F243">
         <v>1</v>
       </c>
-      <c r="H243">
+      <c r="H243" s="23">
         <f>VLOOKUP($A243, Map!$B:$D, 2, FALSE)</f>
         <v>31.230399999999999</v>
       </c>
-      <c r="I243">
+      <c r="I243" s="23">
         <f>VLOOKUP($A243, Map!$B:$D, 3, FALSE)</f>
         <v>121.47369999999999</v>
       </c>
@@ -25567,11 +25570,11 @@
       <c r="E244">
         <v>1</v>
       </c>
-      <c r="H244">
+      <c r="H244" s="23">
         <f>VLOOKUP($A244, Map!$B:$D, 2, FALSE)</f>
         <v>34.746600000000001</v>
       </c>
-      <c r="I244">
+      <c r="I244" s="23">
         <f>VLOOKUP($A244, Map!$B:$D, 3, FALSE)</f>
         <v>113.6253</v>
       </c>
@@ -25632,11 +25635,11 @@
       <c r="E245">
         <v>4</v>
       </c>
-      <c r="H245">
+      <c r="H245" s="23">
         <f>VLOOKUP($A245, Map!$B:$D, 2, FALSE)</f>
         <v>30.572800000000001</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="23">
         <f>VLOOKUP($A245, Map!$B:$D, 3, FALSE)</f>
         <v>104.0668</v>
       </c>
@@ -25694,11 +25697,11 @@
       <c r="D246">
         <v>27</v>
       </c>
-      <c r="H246">
+      <c r="H246" s="23">
         <f>VLOOKUP($A246, Map!$B:$D, 2, FALSE)</f>
         <v>36.651200000000003</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="23">
         <f>VLOOKUP($A246, Map!$B:$D, 3, FALSE)</f>
         <v>117.12009999999999</v>
       </c>
@@ -25756,11 +25759,11 @@
       <c r="D247">
         <v>23</v>
       </c>
-      <c r="H247">
+      <c r="H247" s="23">
         <f>VLOOKUP($A247, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I247">
+      <c r="I247" s="23">
         <f>VLOOKUP($A247, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -25818,11 +25821,11 @@
       <c r="D248">
         <v>19</v>
       </c>
-      <c r="H248">
+      <c r="H248" s="23">
         <f>VLOOKUP($A248, Map!$B:$D, 2, FALSE)</f>
         <v>20.0444</v>
       </c>
-      <c r="I248">
+      <c r="I248" s="23">
         <f>VLOOKUP($A248, Map!$B:$D, 3, FALSE)</f>
         <v>110.1983</v>
       </c>
@@ -25880,11 +25883,11 @@
       <c r="D249">
         <v>18</v>
       </c>
-      <c r="H249">
+      <c r="H249" s="23">
         <f>VLOOKUP($A249, Map!$B:$D, 2, FALSE)</f>
         <v>28.6829</v>
       </c>
-      <c r="I249">
+      <c r="I249" s="23">
         <f>VLOOKUP($A249, Map!$B:$D, 3, FALSE)</f>
         <v>115.8582</v>
       </c>
@@ -25945,11 +25948,11 @@
       <c r="E250">
         <v>20</v>
       </c>
-      <c r="H250">
+      <c r="H250" s="23">
         <f>VLOOKUP($A250, Map!$B:$D, 2, FALSE)</f>
         <v>26.0745</v>
       </c>
-      <c r="I250">
+      <c r="I250" s="23">
         <f>VLOOKUP($A250, Map!$B:$D, 3, FALSE)</f>
         <v>119.29649999999999</v>
       </c>
@@ -26010,11 +26013,11 @@
       <c r="F251">
         <v>1</v>
       </c>
-      <c r="H251">
+      <c r="H251" s="23">
         <f>VLOOKUP($A251, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I251">
+      <c r="I251" s="23">
         <f>VLOOKUP($A251, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -26072,11 +26075,11 @@
       <c r="D252">
         <v>17</v>
       </c>
-      <c r="H252">
+      <c r="H252" s="23">
         <f>VLOOKUP($A252, Map!$B:$D, 2, FALSE)</f>
         <v>41.805700000000002</v>
       </c>
-      <c r="I252">
+      <c r="I252" s="23">
         <f>VLOOKUP($A252, Map!$B:$D, 3, FALSE)</f>
         <v>123.4315</v>
       </c>
@@ -26134,11 +26137,11 @@
       <c r="D253">
         <v>15</v>
       </c>
-      <c r="H253">
+      <c r="H253" s="23">
         <f>VLOOKUP($A253, Map!$B:$D, 2, FALSE)</f>
         <v>34.3416</v>
       </c>
-      <c r="I253">
+      <c r="I253" s="23">
         <f>VLOOKUP($A253, Map!$B:$D, 3, FALSE)</f>
         <v>108.93980000000001</v>
       </c>
@@ -26199,11 +26202,11 @@
       <c r="E254">
         <v>58</v>
       </c>
-      <c r="H254">
+      <c r="H254" s="23">
         <f>VLOOKUP($A254, Map!$B:$D, 2, FALSE)</f>
         <v>24.880099999999999</v>
       </c>
-      <c r="I254">
+      <c r="I254" s="23">
         <f>VLOOKUP($A254, Map!$B:$D, 3, FALSE)</f>
         <v>102.8329</v>
       </c>
@@ -26261,11 +26264,11 @@
       <c r="D255">
         <v>10</v>
       </c>
-      <c r="H255">
+      <c r="H255" s="23">
         <f>VLOOKUP($A255, Map!$B:$D, 2, FALSE)</f>
         <v>39.343400000000003</v>
       </c>
-      <c r="I255">
+      <c r="I255" s="23">
         <f>VLOOKUP($A255, Map!$B:$D, 3, FALSE)</f>
         <v>117.3616</v>
       </c>
@@ -26326,11 +26329,11 @@
       <c r="G256">
         <v>1</v>
       </c>
-      <c r="H256">
+      <c r="H256" s="23">
         <f>VLOOKUP($A256, Map!$B:$D, 2, FALSE)</f>
         <v>45.803800000000003</v>
       </c>
-      <c r="I256">
+      <c r="I256" s="23">
         <f>VLOOKUP($A256, Map!$B:$D, 3, FALSE)</f>
         <v>126.535</v>
       </c>
@@ -26391,11 +26394,11 @@
       <c r="G257">
         <v>1</v>
       </c>
-      <c r="H257">
+      <c r="H257" s="23">
         <f>VLOOKUP($A257, Map!$B:$D, 2, FALSE)</f>
         <v>38.0428</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="23">
         <f>VLOOKUP($A257, Map!$B:$D, 3, FALSE)</f>
         <v>114.5149</v>
       </c>
@@ -26453,11 +26456,11 @@
       <c r="D258">
         <v>7</v>
       </c>
-      <c r="H258">
+      <c r="H258" s="23">
         <f>VLOOKUP($A258, Map!$B:$D, 2, FALSE)</f>
         <v>40.842399999999998</v>
       </c>
-      <c r="I258">
+      <c r="I258" s="23">
         <f>VLOOKUP($A258, Map!$B:$D, 3, FALSE)</f>
         <v>111.75</v>
       </c>
@@ -26515,11 +26518,11 @@
       <c r="D259">
         <v>6</v>
       </c>
-      <c r="H259">
+      <c r="H259" s="23">
         <f>VLOOKUP($A259, Map!$B:$D, 2, FALSE)</f>
         <v>37.870600000000003</v>
       </c>
-      <c r="I259">
+      <c r="I259" s="23">
         <f>VLOOKUP($A259, Map!$B:$D, 3, FALSE)</f>
         <v>112.5489</v>
       </c>
@@ -26580,11 +26583,11 @@
       <c r="E260">
         <v>244</v>
       </c>
-      <c r="H260">
+      <c r="H260" s="23">
         <f>VLOOKUP($A260, Map!$B:$D, 2, FALSE)</f>
         <v>22.319299999999998</v>
       </c>
-      <c r="I260">
+      <c r="I260" s="23">
         <f>VLOOKUP($A260, Map!$B:$D, 3, FALSE)</f>
         <v>114.1694</v>
       </c>
@@ -26642,11 +26645,11 @@
       <c r="D261">
         <v>4</v>
       </c>
-      <c r="H261">
+      <c r="H261" s="23">
         <f>VLOOKUP($A261, Map!$B:$D, 2, FALSE)</f>
         <v>26.6477</v>
       </c>
-      <c r="I261">
+      <c r="I261" s="23">
         <f>VLOOKUP($A261, Map!$B:$D, 3, FALSE)</f>
         <v>106.6302</v>
       </c>
@@ -26704,11 +26707,11 @@
       <c r="D262">
         <v>4</v>
       </c>
-      <c r="H262">
+      <c r="H262" s="23">
         <f>VLOOKUP($A262, Map!$B:$D, 2, FALSE)</f>
         <v>43.817100000000003</v>
       </c>
-      <c r="I262">
+      <c r="I262" s="23">
         <f>VLOOKUP($A262, Map!$B:$D, 3, FALSE)</f>
         <v>125.3235</v>
       </c>
@@ -26766,11 +26769,11 @@
       <c r="D263">
         <v>4</v>
       </c>
-      <c r="H263">
+      <c r="H263" s="23">
         <f>VLOOKUP($A263, Map!$B:$D, 2, FALSE)</f>
         <v>36.061100000000003</v>
       </c>
-      <c r="I263">
+      <c r="I263" s="23">
         <f>VLOOKUP($A263, Map!$B:$D, 3, FALSE)</f>
         <v>103.8343</v>
       </c>
@@ -26831,11 +26834,11 @@
       <c r="E264">
         <v>1</v>
       </c>
-      <c r="H264">
+      <c r="H264" s="23">
         <f>VLOOKUP($A264, Map!$B:$D, 2, FALSE)</f>
         <v>38.487200000000001</v>
       </c>
-      <c r="I264">
+      <c r="I264" s="23">
         <f>VLOOKUP($A264, Map!$B:$D, 3, FALSE)</f>
         <v>106.23090000000001</v>
       </c>
@@ -26893,11 +26896,11 @@
       <c r="D265">
         <v>3</v>
       </c>
-      <c r="H265">
+      <c r="H265" s="23">
         <f>VLOOKUP($A265, Map!$B:$D, 2, FALSE)</f>
         <v>25.033000000000001</v>
       </c>
-      <c r="I265">
+      <c r="I265" s="23">
         <f>VLOOKUP($A265, Map!$B:$D, 3, FALSE)</f>
         <v>121.5654</v>
       </c>
@@ -26955,11 +26958,11 @@
       <c r="D266">
         <v>3</v>
       </c>
-      <c r="H266">
+      <c r="H266" s="23">
         <f>VLOOKUP($A266, Map!$B:$D, 2, FALSE)</f>
         <v>43.825600000000001</v>
       </c>
-      <c r="I266">
+      <c r="I266" s="23">
         <f>VLOOKUP($A266, Map!$B:$D, 3, FALSE)</f>
         <v>87.616799999999998</v>
       </c>
@@ -27017,11 +27020,11 @@
       <c r="D267">
         <v>2</v>
       </c>
-      <c r="H267">
+      <c r="H267" s="23">
         <f>VLOOKUP($A267, Map!$B:$D, 2, FALSE)</f>
         <v>22.198699999999999</v>
       </c>
-      <c r="I267">
+      <c r="I267" s="23">
         <f>VLOOKUP($A267, Map!$B:$D, 3, FALSE)</f>
         <v>113.54389999999999</v>
       </c>
@@ -27079,11 +27082,11 @@
       <c r="D268">
         <v>1</v>
       </c>
-      <c r="H268">
+      <c r="H268" s="23">
         <f>VLOOKUP($A268, Map!$B:$D, 2, FALSE)</f>
         <v>36.617100000000001</v>
       </c>
-      <c r="I268">
+      <c r="I268" s="23">
         <f>VLOOKUP($A268, Map!$B:$D, 3, FALSE)</f>
         <v>101.7782</v>
       </c>
@@ -27141,11 +27144,11 @@
       <c r="D269">
         <v>1</v>
       </c>
-      <c r="H269">
+      <c r="H269" s="23">
         <f>VLOOKUP($A269, Map!$B:$D, 2, FALSE)</f>
         <v>47.751100000000001</v>
       </c>
-      <c r="I269">
+      <c r="I269" s="23">
         <f>VLOOKUP($A269, Map!$B:$D, 3, FALSE)</f>
         <v>-120.74</v>
       </c>
@@ -27203,11 +27206,11 @@
       <c r="D270">
         <v>1</v>
       </c>
-      <c r="H270">
+      <c r="H270" s="23">
         <f>VLOOKUP($A270, Map!$B:$D, 2, FALSE)</f>
         <v>40.633099999999999</v>
       </c>
-      <c r="I270">
+      <c r="I270" s="23">
         <f>VLOOKUP($A270, Map!$B:$D, 3, FALSE)</f>
         <v>-89.398499999999999</v>
       </c>
@@ -27265,11 +27268,11 @@
       <c r="D271">
         <v>2</v>
       </c>
-      <c r="H271">
+      <c r="H271" s="23">
         <f>VLOOKUP($A271, Map!$B:$D, 2, FALSE)</f>
         <v>35.676200000000001</v>
       </c>
-      <c r="I271">
+      <c r="I271" s="23">
         <f>VLOOKUP($A271, Map!$B:$D, 3, FALSE)</f>
         <v>139.65029999999999</v>
       </c>
@@ -27327,11 +27330,11 @@
       <c r="D272">
         <v>7</v>
       </c>
-      <c r="H272">
+      <c r="H272" s="23">
         <f>VLOOKUP($A272, Map!$B:$D, 2, FALSE)</f>
         <v>13.7563</v>
       </c>
-      <c r="I272">
+      <c r="I272" s="23">
         <f>VLOOKUP($A272, Map!$B:$D, 3, FALSE)</f>
         <v>100.5018</v>
       </c>
@@ -27389,11 +27392,11 @@
       <c r="D273">
         <v>2</v>
       </c>
-      <c r="H273">
+      <c r="H273" s="23">
         <f>VLOOKUP($A273, Map!$B:$D, 2, FALSE)</f>
         <v>37.566499999999998</v>
       </c>
-      <c r="I273">
+      <c r="I273" s="23">
         <f>VLOOKUP($A273, Map!$B:$D, 3, FALSE)</f>
         <v>126.97799999999999</v>
       </c>
@@ -27451,11 +27454,11 @@
       <c r="D274">
         <v>3</v>
       </c>
-      <c r="H274">
+      <c r="H274" s="23">
         <f>VLOOKUP($A274, Map!$B:$D, 2, FALSE)</f>
         <v>1.3521000000000001</v>
       </c>
-      <c r="I274">
+      <c r="I274" s="23">
         <f>VLOOKUP($A274, Map!$B:$D, 3, FALSE)</f>
         <v>103.8198</v>
       </c>
@@ -27513,11 +27516,11 @@
       <c r="D275">
         <v>2</v>
       </c>
-      <c r="H275">
+      <c r="H275" s="23">
         <f>VLOOKUP($A275, Map!$B:$D, 2, FALSE)</f>
         <v>21.027799999999999</v>
       </c>
-      <c r="I275">
+      <c r="I275" s="23">
         <f>VLOOKUP($A275, Map!$B:$D, 3, FALSE)</f>
         <v>105.8342</v>
       </c>
@@ -27575,11 +27578,11 @@
       <c r="D276">
         <v>3</v>
       </c>
-      <c r="H276">
+      <c r="H276" s="23">
         <f>VLOOKUP($A276, Map!$B:$D, 2, FALSE)</f>
         <v>48.8566</v>
       </c>
-      <c r="I276">
+      <c r="I276" s="23">
         <f>VLOOKUP($A276, Map!$B:$D, 3, FALSE)</f>
         <v>2.3521999999999998</v>
       </c>
@@ -27637,11 +27640,11 @@
       <c r="D277">
         <v>4</v>
       </c>
-      <c r="H277">
+      <c r="H277" s="23">
         <f>VLOOKUP($A277, Map!$B:$D, 2, FALSE)</f>
         <v>-37.813600000000001</v>
       </c>
-      <c r="I277">
+      <c r="I277" s="23">
         <f>VLOOKUP($A277, Map!$B:$D, 3, FALSE)</f>
         <v>144.9631</v>
       </c>
@@ -27699,11 +27702,11 @@
       <c r="D278">
         <v>1</v>
       </c>
-      <c r="H278">
+      <c r="H278" s="23">
         <f>VLOOKUP($A278, Map!$B:$D, 2, FALSE)</f>
         <v>27.717199999999998</v>
       </c>
-      <c r="I278">
+      <c r="I278" s="23">
         <f>VLOOKUP($A278, Map!$B:$D, 3, FALSE)</f>
         <v>85.323999999999998</v>
       </c>
@@ -27761,11 +27764,11 @@
       <c r="D279">
         <v>3</v>
       </c>
-      <c r="H279">
+      <c r="H279" s="23">
         <f>VLOOKUP($A279, Map!$B:$D, 2, FALSE)</f>
         <v>3.1389999999999998</v>
       </c>
-      <c r="I279">
+      <c r="I279" s="23">
         <f>VLOOKUP($A279, Map!$B:$D, 3, FALSE)</f>
         <v>101.68689999999999</v>
       </c>
@@ -27829,11 +27832,11 @@
       <c r="G280">
         <v>52</v>
       </c>
-      <c r="H280">
+      <c r="H280" s="23">
         <f>VLOOKUP($A280, Map!$B:$D, 2, FALSE)</f>
         <v>30.5928</v>
       </c>
-      <c r="I280">
+      <c r="I280" s="23">
         <f>VLOOKUP($A280, Map!$B:$D, 3, FALSE)</f>
         <v>114.30549999999999</v>
       </c>
@@ -27894,11 +27897,11 @@
       <c r="F281">
         <v>1</v>
       </c>
-      <c r="H281">
+      <c r="H281" s="23">
         <f>VLOOKUP($A281, Map!$B:$D, 2, FALSE)</f>
         <v>30.274100000000001</v>
       </c>
-      <c r="I281">
+      <c r="I281" s="23">
         <f>VLOOKUP($A281, Map!$B:$D, 3, FALSE)</f>
         <v>120.1551</v>
       </c>
@@ -27959,11 +27962,11 @@
       <c r="F282">
         <v>2</v>
       </c>
-      <c r="H282">
+      <c r="H282" s="23">
         <f>VLOOKUP($A282, Map!$B:$D, 2, FALSE)</f>
         <v>23.129100000000001</v>
       </c>
-      <c r="I282">
+      <c r="I282" s="23">
         <f>VLOOKUP($A282, Map!$B:$D, 3, FALSE)</f>
         <v>113.26439999999999</v>
       </c>
@@ -28027,11 +28030,11 @@
       <c r="G283">
         <v>1</v>
       </c>
-      <c r="H283">
+      <c r="H283" s="23">
         <f>VLOOKUP($A283, Map!$B:$D, 2, FALSE)</f>
         <v>34.746600000000001</v>
       </c>
-      <c r="I283">
+      <c r="I283" s="23">
         <f>VLOOKUP($A283, Map!$B:$D, 3, FALSE)</f>
         <v>113.6253</v>
       </c>
@@ -28089,11 +28092,11 @@
       <c r="D284">
         <v>75</v>
       </c>
-      <c r="H284">
+      <c r="H284" s="23">
         <f>VLOOKUP($A284, Map!$B:$D, 2, FALSE)</f>
         <v>29.4316</v>
       </c>
-      <c r="I284">
+      <c r="I284" s="23">
         <f>VLOOKUP($A284, Map!$B:$D, 3, FALSE)</f>
         <v>106.9123</v>
       </c>
@@ -28151,11 +28154,11 @@
       <c r="D285">
         <v>69</v>
       </c>
-      <c r="H285">
+      <c r="H285" s="23">
         <f>VLOOKUP($A285, Map!$B:$D, 2, FALSE)</f>
         <v>28.228200000000001</v>
       </c>
-      <c r="I285">
+      <c r="I285" s="23">
         <f>VLOOKUP($A285, Map!$B:$D, 3, FALSE)</f>
         <v>112.9388</v>
       </c>
@@ -28216,11 +28219,11 @@
       <c r="E286">
         <v>4</v>
       </c>
-      <c r="H286">
+      <c r="H286" s="23">
         <f>VLOOKUP($A286, Map!$B:$D, 2, FALSE)</f>
         <v>31.820599999999999</v>
       </c>
-      <c r="I286">
+      <c r="I286" s="23">
         <f>VLOOKUP($A286, Map!$B:$D, 3, FALSE)</f>
         <v>117.2272</v>
       </c>
@@ -28281,11 +28284,11 @@
       <c r="F287">
         <v>2</v>
       </c>
-      <c r="H287">
+      <c r="H287" s="23">
         <f>VLOOKUP($A287, Map!$B:$D, 2, FALSE)</f>
         <v>39.904200000000003</v>
       </c>
-      <c r="I287">
+      <c r="I287" s="23">
         <f>VLOOKUP($A287, Map!$B:$D, 3, FALSE)</f>
         <v>116.4074</v>
       </c>
@@ -28346,11 +28349,11 @@
       <c r="E288">
         <v>4</v>
       </c>
-      <c r="H288">
+      <c r="H288" s="23">
         <f>VLOOKUP($A288, Map!$B:$D, 2, FALSE)</f>
         <v>30.572800000000001</v>
       </c>
-      <c r="I288">
+      <c r="I288" s="23">
         <f>VLOOKUP($A288, Map!$B:$D, 3, FALSE)</f>
         <v>104.0668</v>
       </c>
@@ -28417,11 +28420,11 @@
       <c r="G289">
         <v>1</v>
       </c>
-      <c r="H289">
+      <c r="H289" s="23">
         <f>VLOOKUP($A289, Map!$B:$D, 2, FALSE)</f>
         <v>31.230399999999999</v>
       </c>
-      <c r="I289">
+      <c r="I289" s="23">
         <f>VLOOKUP($A289, Map!$B:$D, 3, FALSE)</f>
         <v>121.47369999999999</v>
       </c>
@@ -28479,11 +28482,11 @@
       <c r="D290">
         <v>39</v>
       </c>
-      <c r="H290">
+      <c r="H290" s="23">
         <f>VLOOKUP($A290, Map!$B:$D, 2, FALSE)</f>
         <v>36.651200000000003</v>
       </c>
-      <c r="I290">
+      <c r="I290" s="23">
         <f>VLOOKUP($A290, Map!$B:$D, 3, FALSE)</f>
         <v>117.12009999999999</v>
       </c>
@@ -28541,11 +28544,11 @@
       <c r="D291">
         <v>36</v>
       </c>
-      <c r="H291">
+      <c r="H291" s="23">
         <f>VLOOKUP($A291, Map!$B:$D, 2, FALSE)</f>
         <v>28.6829</v>
       </c>
-      <c r="I291">
+      <c r="I291" s="23">
         <f>VLOOKUP($A291, Map!$B:$D, 3, FALSE)</f>
         <v>115.8582</v>
       </c>
@@ -28603,11 +28606,11 @@
       <c r="D292">
         <v>33</v>
       </c>
-      <c r="H292">
+      <c r="H292" s="23">
         <f>VLOOKUP($A292, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I292">
+      <c r="I292" s="23">
         <f>VLOOKUP($A292, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -28668,11 +28671,11 @@
       <c r="F293">
         <v>1</v>
       </c>
-      <c r="H293">
+      <c r="H293" s="23">
         <f>VLOOKUP($A293, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I293">
+      <c r="I293" s="23">
         <f>VLOOKUP($A293, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -28730,11 +28733,11 @@
       <c r="D294">
         <v>19</v>
       </c>
-      <c r="H294">
+      <c r="H294" s="23">
         <f>VLOOKUP($A294, Map!$B:$D, 2, FALSE)</f>
         <v>20.0444</v>
       </c>
-      <c r="I294">
+      <c r="I294" s="23">
         <f>VLOOKUP($A294, Map!$B:$D, 3, FALSE)</f>
         <v>110.1983</v>
       </c>
@@ -28792,11 +28795,11 @@
       <c r="D295">
         <v>19</v>
       </c>
-      <c r="H295">
+      <c r="H295" s="23">
         <f>VLOOKUP($A295, Map!$B:$D, 2, FALSE)</f>
         <v>41.805700000000002</v>
       </c>
-      <c r="I295">
+      <c r="I295" s="23">
         <f>VLOOKUP($A295, Map!$B:$D, 3, FALSE)</f>
         <v>123.4315</v>
       </c>
@@ -28860,11 +28863,11 @@
       <c r="G296">
         <v>1</v>
       </c>
-      <c r="H296">
+      <c r="H296" s="23">
         <f>VLOOKUP($A296, Map!$B:$D, 2, FALSE)</f>
         <v>26.0745</v>
       </c>
-      <c r="I296">
+      <c r="I296" s="23">
         <f>VLOOKUP($A296, Map!$B:$D, 3, FALSE)</f>
         <v>119.29649999999999</v>
       </c>
@@ -28922,11 +28925,11 @@
       <c r="D297">
         <v>15</v>
       </c>
-      <c r="H297">
+      <c r="H297" s="23">
         <f>VLOOKUP($A297, Map!$B:$D, 2, FALSE)</f>
         <v>45.803800000000003</v>
       </c>
-      <c r="I297">
+      <c r="I297" s="23">
         <f>VLOOKUP($A297, Map!$B:$D, 3, FALSE)</f>
         <v>126.535</v>
       </c>
@@ -28984,11 +28987,11 @@
       <c r="D298">
         <v>15</v>
       </c>
-      <c r="H298">
+      <c r="H298" s="23">
         <f>VLOOKUP($A298, Map!$B:$D, 2, FALSE)</f>
         <v>34.3416</v>
       </c>
-      <c r="I298">
+      <c r="I298" s="23">
         <f>VLOOKUP($A298, Map!$B:$D, 3, FALSE)</f>
         <v>108.93980000000001</v>
       </c>
@@ -29046,11 +29049,11 @@
       <c r="D299">
         <v>13</v>
       </c>
-      <c r="H299">
+      <c r="H299" s="23">
         <f>VLOOKUP($A299, Map!$B:$D, 2, FALSE)</f>
         <v>39.343400000000003</v>
       </c>
-      <c r="I299">
+      <c r="I299" s="23">
         <f>VLOOKUP($A299, Map!$B:$D, 3, FALSE)</f>
         <v>117.3616</v>
       </c>
@@ -29111,11 +29114,11 @@
       <c r="G300">
         <v>1</v>
       </c>
-      <c r="H300">
+      <c r="H300" s="23">
         <f>VLOOKUP($A300, Map!$B:$D, 2, FALSE)</f>
         <v>38.0428</v>
       </c>
-      <c r="I300">
+      <c r="I300" s="23">
         <f>VLOOKUP($A300, Map!$B:$D, 3, FALSE)</f>
         <v>114.5149</v>
       </c>
@@ -29176,11 +29179,11 @@
       <c r="E301">
         <v>58</v>
       </c>
-      <c r="H301">
+      <c r="H301" s="23">
         <f>VLOOKUP($A301, Map!$B:$D, 2, FALSE)</f>
         <v>24.880099999999999</v>
       </c>
-      <c r="I301">
+      <c r="I301" s="23">
         <f>VLOOKUP($A301, Map!$B:$D, 3, FALSE)</f>
         <v>102.8329</v>
       </c>
@@ -29238,11 +29241,11 @@
       <c r="D302">
         <v>9</v>
       </c>
-      <c r="H302">
+      <c r="H302" s="23">
         <f>VLOOKUP($A302, Map!$B:$D, 2, FALSE)</f>
         <v>37.870600000000003</v>
       </c>
-      <c r="I302">
+      <c r="I302" s="23">
         <f>VLOOKUP($A302, Map!$B:$D, 3, FALSE)</f>
         <v>112.5489</v>
       </c>
@@ -29300,11 +29303,11 @@
       <c r="D303">
         <v>7</v>
       </c>
-      <c r="H303">
+      <c r="H303" s="23">
         <f>VLOOKUP($A303, Map!$B:$D, 2, FALSE)</f>
         <v>40.842399999999998</v>
       </c>
-      <c r="I303">
+      <c r="I303" s="23">
         <f>VLOOKUP($A303, Map!$B:$D, 3, FALSE)</f>
         <v>111.75</v>
       </c>
@@ -29362,11 +29365,11 @@
       <c r="D304">
         <v>7</v>
       </c>
-      <c r="H304">
+      <c r="H304" s="23">
         <f>VLOOKUP($A304, Map!$B:$D, 2, FALSE)</f>
         <v>36.061100000000003</v>
       </c>
-      <c r="I304">
+      <c r="I304" s="23">
         <f>VLOOKUP($A304, Map!$B:$D, 3, FALSE)</f>
         <v>103.8343</v>
       </c>
@@ -29424,11 +29427,11 @@
       <c r="D305">
         <v>5</v>
       </c>
-      <c r="H305">
+      <c r="H305" s="23">
         <f>VLOOKUP($A305, Map!$B:$D, 2, FALSE)</f>
         <v>26.6477</v>
       </c>
-      <c r="I305">
+      <c r="I305" s="23">
         <f>VLOOKUP($A305, Map!$B:$D, 3, FALSE)</f>
         <v>106.6302</v>
       </c>
@@ -29489,11 +29492,11 @@
       <c r="E306">
         <v>244</v>
       </c>
-      <c r="H306">
+      <c r="H306" s="23">
         <f>VLOOKUP($A306, Map!$B:$D, 2, FALSE)</f>
         <v>22.319299999999998</v>
       </c>
-      <c r="I306">
+      <c r="I306" s="23">
         <f>VLOOKUP($A306, Map!$B:$D, 3, FALSE)</f>
         <v>114.1694</v>
       </c>
@@ -29554,11 +29557,11 @@
       <c r="E307">
         <v>1</v>
       </c>
-      <c r="H307">
+      <c r="H307" s="23">
         <f>VLOOKUP($A307, Map!$B:$D, 2, FALSE)</f>
         <v>38.487200000000001</v>
       </c>
-      <c r="I307">
+      <c r="I307" s="23">
         <f>VLOOKUP($A307, Map!$B:$D, 3, FALSE)</f>
         <v>106.23090000000001</v>
       </c>
@@ -29616,11 +29619,11 @@
       <c r="D308">
         <v>4</v>
       </c>
-      <c r="H308">
+      <c r="H308" s="23">
         <f>VLOOKUP($A308, Map!$B:$D, 2, FALSE)</f>
         <v>43.817100000000003</v>
       </c>
-      <c r="I308">
+      <c r="I308" s="23">
         <f>VLOOKUP($A308, Map!$B:$D, 3, FALSE)</f>
         <v>125.3235</v>
       </c>
@@ -29678,11 +29681,11 @@
       <c r="D309">
         <v>4</v>
       </c>
-      <c r="H309">
+      <c r="H309" s="23">
         <f>VLOOKUP($A309, Map!$B:$D, 2, FALSE)</f>
         <v>43.825600000000001</v>
       </c>
-      <c r="I309">
+      <c r="I309" s="23">
         <f>VLOOKUP($A309, Map!$B:$D, 3, FALSE)</f>
         <v>87.616799999999998</v>
       </c>
@@ -29740,11 +29743,11 @@
       <c r="D310">
         <v>3</v>
       </c>
-      <c r="H310">
+      <c r="H310" s="23">
         <f>VLOOKUP($A310, Map!$B:$D, 2, FALSE)</f>
         <v>25.033000000000001</v>
       </c>
-      <c r="I310">
+      <c r="I310" s="23">
         <f>VLOOKUP($A310, Map!$B:$D, 3, FALSE)</f>
         <v>121.5654</v>
       </c>
@@ -29802,11 +29805,11 @@
       <c r="D311">
         <v>2</v>
       </c>
-      <c r="H311">
+      <c r="H311" s="23">
         <f>VLOOKUP($A311, Map!$B:$D, 2, FALSE)</f>
         <v>22.198699999999999</v>
       </c>
-      <c r="I311">
+      <c r="I311" s="23">
         <f>VLOOKUP($A311, Map!$B:$D, 3, FALSE)</f>
         <v>113.54389999999999</v>
       </c>
@@ -29864,11 +29867,11 @@
       <c r="D312">
         <v>1</v>
       </c>
-      <c r="H312">
+      <c r="H312" s="23">
         <f>VLOOKUP($A312, Map!$B:$D, 2, FALSE)</f>
         <v>36.617100000000001</v>
       </c>
-      <c r="I312">
+      <c r="I312" s="23">
         <f>VLOOKUP($A312, Map!$B:$D, 3, FALSE)</f>
         <v>101.7782</v>
       </c>
@@ -29926,11 +29929,11 @@
       <c r="D313">
         <v>1</v>
       </c>
-      <c r="H313">
+      <c r="H313" s="23">
         <f>VLOOKUP($A313, Map!$B:$D, 2, FALSE)</f>
         <v>47.751100000000001</v>
       </c>
-      <c r="I313">
+      <c r="I313" s="23">
         <f>VLOOKUP($A313, Map!$B:$D, 3, FALSE)</f>
         <v>-120.74</v>
       </c>
@@ -29988,11 +29991,11 @@
       <c r="D314">
         <v>1</v>
       </c>
-      <c r="H314">
+      <c r="H314" s="23">
         <f>VLOOKUP($A314, Map!$B:$D, 2, FALSE)</f>
         <v>40.633099999999999</v>
       </c>
-      <c r="I314">
+      <c r="I314" s="23">
         <f>VLOOKUP($A314, Map!$B:$D, 3, FALSE)</f>
         <v>-89.398499999999999</v>
       </c>
@@ -30050,11 +30053,11 @@
       <c r="D315">
         <v>2</v>
       </c>
-      <c r="H315">
+      <c r="H315" s="23">
         <f>VLOOKUP($A315, Map!$B:$D, 2, FALSE)</f>
         <v>35.676200000000001</v>
       </c>
-      <c r="I315">
+      <c r="I315" s="23">
         <f>VLOOKUP($A315, Map!$B:$D, 3, FALSE)</f>
         <v>139.65029999999999</v>
       </c>
@@ -30112,11 +30115,11 @@
       <c r="D316">
         <v>7</v>
       </c>
-      <c r="H316">
+      <c r="H316" s="23">
         <f>VLOOKUP($A316, Map!$B:$D, 2, FALSE)</f>
         <v>13.7563</v>
       </c>
-      <c r="I316">
+      <c r="I316" s="23">
         <f>VLOOKUP($A316, Map!$B:$D, 3, FALSE)</f>
         <v>100.5018</v>
       </c>
@@ -30174,11 +30177,11 @@
       <c r="D317">
         <v>3</v>
       </c>
-      <c r="H317">
+      <c r="H317" s="23">
         <f>VLOOKUP($A317, Map!$B:$D, 2, FALSE)</f>
         <v>37.566499999999998</v>
       </c>
-      <c r="I317">
+      <c r="I317" s="23">
         <f>VLOOKUP($A317, Map!$B:$D, 3, FALSE)</f>
         <v>126.97799999999999</v>
       </c>
@@ -30236,11 +30239,11 @@
       <c r="D318">
         <v>3</v>
       </c>
-      <c r="H318">
+      <c r="H318" s="23">
         <f>VLOOKUP($A318, Map!$B:$D, 2, FALSE)</f>
         <v>1.3521000000000001</v>
       </c>
-      <c r="I318">
+      <c r="I318" s="23">
         <f>VLOOKUP($A318, Map!$B:$D, 3, FALSE)</f>
         <v>103.8198</v>
       </c>
@@ -30298,11 +30301,11 @@
       <c r="D319">
         <v>2</v>
       </c>
-      <c r="H319">
+      <c r="H319" s="23">
         <f>VLOOKUP($A319, Map!$B:$D, 2, FALSE)</f>
         <v>21.027799999999999</v>
       </c>
-      <c r="I319">
+      <c r="I319" s="23">
         <f>VLOOKUP($A319, Map!$B:$D, 3, FALSE)</f>
         <v>105.8342</v>
       </c>
@@ -30360,11 +30363,11 @@
       <c r="D320">
         <v>3</v>
       </c>
-      <c r="H320">
+      <c r="H320" s="23">
         <f>VLOOKUP($A320, Map!$B:$D, 2, FALSE)</f>
         <v>48.8566</v>
       </c>
-      <c r="I320">
+      <c r="I320" s="23">
         <f>VLOOKUP($A320, Map!$B:$D, 3, FALSE)</f>
         <v>2.3521999999999998</v>
       </c>
@@ -30422,11 +30425,11 @@
       <c r="D321">
         <v>4</v>
       </c>
-      <c r="H321">
+      <c r="H321" s="23">
         <f>VLOOKUP($A321, Map!$B:$D, 2, FALSE)</f>
         <v>-37.813600000000001</v>
       </c>
-      <c r="I321">
+      <c r="I321" s="23">
         <f>VLOOKUP($A321, Map!$B:$D, 3, FALSE)</f>
         <v>144.9631</v>
       </c>
@@ -30484,11 +30487,11 @@
       <c r="D322">
         <v>1</v>
       </c>
-      <c r="H322">
+      <c r="H322" s="23">
         <f>VLOOKUP($A322, Map!$B:$D, 2, FALSE)</f>
         <v>27.717199999999998</v>
       </c>
-      <c r="I322">
+      <c r="I322" s="23">
         <f>VLOOKUP($A322, Map!$B:$D, 3, FALSE)</f>
         <v>85.323999999999998</v>
       </c>
@@ -30546,11 +30549,11 @@
       <c r="D323">
         <v>3</v>
       </c>
-      <c r="H323">
+      <c r="H323" s="23">
         <f>VLOOKUP($A323, Map!$B:$D, 2, FALSE)</f>
         <v>3.1389999999999998</v>
       </c>
-      <c r="I323">
+      <c r="I323" s="23">
         <f>VLOOKUP($A323, Map!$B:$D, 3, FALSE)</f>
         <v>101.68689999999999</v>
       </c>
@@ -30614,11 +30617,11 @@
       <c r="G324">
         <v>52</v>
       </c>
-      <c r="H324">
+      <c r="H324" s="23">
         <f>VLOOKUP($A324, Map!$B:$D, 2, FALSE)</f>
         <v>30.5928</v>
       </c>
-      <c r="I324">
+      <c r="I324" s="23">
         <f>VLOOKUP($A324, Map!$B:$D, 3, FALSE)</f>
         <v>114.30549999999999</v>
       </c>
@@ -30679,11 +30682,11 @@
       <c r="F325">
         <v>2</v>
       </c>
-      <c r="H325">
+      <c r="H325" s="23">
         <f>VLOOKUP($A325, Map!$B:$D, 2, FALSE)</f>
         <v>23.129100000000001</v>
       </c>
-      <c r="I325">
+      <c r="I325" s="23">
         <f>VLOOKUP($A325, Map!$B:$D, 3, FALSE)</f>
         <v>113.26439999999999</v>
       </c>
@@ -30744,11 +30747,11 @@
       <c r="F326">
         <v>1</v>
       </c>
-      <c r="H326">
+      <c r="H326" s="23">
         <f>VLOOKUP($A326, Map!$B:$D, 2, FALSE)</f>
         <v>30.274100000000001</v>
       </c>
-      <c r="I326">
+      <c r="I326" s="23">
         <f>VLOOKUP($A326, Map!$B:$D, 3, FALSE)</f>
         <v>120.1551</v>
       </c>
@@ -30812,11 +30815,11 @@
       <c r="G327">
         <v>1</v>
       </c>
-      <c r="H327">
+      <c r="H327" s="23">
         <f>VLOOKUP($A327, Map!$B:$D, 2, FALSE)</f>
         <v>34.746600000000001</v>
       </c>
-      <c r="I327">
+      <c r="I327" s="23">
         <f>VLOOKUP($A327, Map!$B:$D, 3, FALSE)</f>
         <v>113.6253</v>
       </c>
@@ -30874,11 +30877,11 @@
       <c r="D328">
         <v>75</v>
       </c>
-      <c r="H328">
+      <c r="H328" s="23">
         <f>VLOOKUP($A328, Map!$B:$D, 2, FALSE)</f>
         <v>29.4316</v>
       </c>
-      <c r="I328">
+      <c r="I328" s="23">
         <f>VLOOKUP($A328, Map!$B:$D, 3, FALSE)</f>
         <v>106.9123</v>
       </c>
@@ -30936,11 +30939,11 @@
       <c r="D329">
         <v>69</v>
       </c>
-      <c r="H329">
+      <c r="H329" s="23">
         <f>VLOOKUP($A329, Map!$B:$D, 2, FALSE)</f>
         <v>28.228200000000001</v>
       </c>
-      <c r="I329">
+      <c r="I329" s="23">
         <f>VLOOKUP($A329, Map!$B:$D, 3, FALSE)</f>
         <v>112.9388</v>
       </c>
@@ -31001,11 +31004,11 @@
       <c r="F330">
         <v>2</v>
       </c>
-      <c r="H330">
+      <c r="H330" s="23">
         <f>VLOOKUP($A330, Map!$B:$D, 2, FALSE)</f>
         <v>39.904200000000003</v>
       </c>
-      <c r="I330">
+      <c r="I330" s="23">
         <f>VLOOKUP($A330, Map!$B:$D, 3, FALSE)</f>
         <v>116.4074</v>
       </c>
@@ -31066,11 +31069,11 @@
       <c r="E331">
         <v>4</v>
       </c>
-      <c r="H331">
+      <c r="H331" s="23">
         <f>VLOOKUP($A331, Map!$B:$D, 2, FALSE)</f>
         <v>31.820599999999999</v>
       </c>
-      <c r="I331">
+      <c r="I331" s="23">
         <f>VLOOKUP($A331, Map!$B:$D, 3, FALSE)</f>
         <v>117.2272</v>
       </c>
@@ -31128,11 +31131,11 @@
       <c r="D332">
         <v>46</v>
       </c>
-      <c r="H332">
+      <c r="H332" s="23">
         <f>VLOOKUP($A332, Map!$B:$D, 2, FALSE)</f>
         <v>36.651200000000003</v>
       </c>
-      <c r="I332">
+      <c r="I332" s="23">
         <f>VLOOKUP($A332, Map!$B:$D, 3, FALSE)</f>
         <v>117.12009999999999</v>
       </c>
@@ -31193,11 +31196,11 @@
       <c r="E333">
         <v>4</v>
       </c>
-      <c r="H333">
+      <c r="H333" s="23">
         <f>VLOOKUP($A333, Map!$B:$D, 2, FALSE)</f>
         <v>30.572800000000001</v>
       </c>
-      <c r="I333">
+      <c r="I333" s="23">
         <f>VLOOKUP($A333, Map!$B:$D, 3, FALSE)</f>
         <v>104.0668</v>
       </c>
@@ -31264,11 +31267,11 @@
       <c r="G334">
         <v>1</v>
       </c>
-      <c r="H334">
+      <c r="H334" s="23">
         <f>VLOOKUP($A334, Map!$B:$D, 2, FALSE)</f>
         <v>31.230399999999999</v>
       </c>
-      <c r="I334">
+      <c r="I334" s="23">
         <f>VLOOKUP($A334, Map!$B:$D, 3, FALSE)</f>
         <v>121.47369999999999</v>
       </c>
@@ -31326,11 +31329,11 @@
       <c r="D335">
         <v>36</v>
       </c>
-      <c r="H335">
+      <c r="H335" s="23">
         <f>VLOOKUP($A335, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I335">
+      <c r="I335" s="23">
         <f>VLOOKUP($A335, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -31388,11 +31391,11 @@
       <c r="D336">
         <v>36</v>
       </c>
-      <c r="H336">
+      <c r="H336" s="23">
         <f>VLOOKUP($A336, Map!$B:$D, 2, FALSE)</f>
         <v>28.6829</v>
       </c>
-      <c r="I336">
+      <c r="I336" s="23">
         <f>VLOOKUP($A336, Map!$B:$D, 3, FALSE)</f>
         <v>115.8582</v>
       </c>
@@ -31453,11 +31456,11 @@
       <c r="E337">
         <v>20</v>
       </c>
-      <c r="H337">
+      <c r="H337" s="23">
         <f>VLOOKUP($A337, Map!$B:$D, 2, FALSE)</f>
         <v>26.0745</v>
       </c>
-      <c r="I337">
+      <c r="I337" s="23">
         <f>VLOOKUP($A337, Map!$B:$D, 3, FALSE)</f>
         <v>119.29649999999999</v>
       </c>
@@ -31518,11 +31521,11 @@
       <c r="F338">
         <v>1</v>
       </c>
-      <c r="H338">
+      <c r="H338" s="23">
         <f>VLOOKUP($A338, Map!$B:$D, 2, FALSE)</f>
         <v>32.060299999999998</v>
       </c>
-      <c r="I338">
+      <c r="I338" s="23">
         <f>VLOOKUP($A338, Map!$B:$D, 3, FALSE)</f>
         <v>118.79689999999999</v>
       </c>
@@ -31580,11 +31583,11 @@
       <c r="D339">
         <v>22</v>
       </c>
-      <c r="H339">
+      <c r="H339" s="23">
         <f>VLOOKUP($A339, Map!$B:$D, 2, FALSE)</f>
         <v>20.0444</v>
       </c>
-      <c r="I339">
+      <c r="I339" s="23">
         <f>VLOOKUP($A339, Map!$B:$D, 3, FALSE)</f>
         <v>110.1983</v>
       </c>
@@ -31642,11 +31645,11 @@
       <c r="D340">
         <v>22</v>
       </c>
-      <c r="H340">
+      <c r="H340" s="23">
         <f>VLOOKUP($A340, Map!$B:$D, 2, FALSE)</f>
         <v>34.3416</v>
       </c>
-      <c r="I340">
+      <c r="I340" s="23">
         <f>VLOOKUP($A340, Map!$B:$D, 3, FALSE)</f>
         <v>108.93980000000001</v>
       </c>
@@ -31704,11 +31707,11 @@
       <c r="D341">
         <v>21</v>
       </c>
-      <c r="H341">
+      <c r="H341" s="23">
         <f>VLOOKUP($A341, Map!$B:$D, 2, FALSE)</f>
         <v>41.805700000000002</v>
       </c>
-      <c r="I341">
+      <c r="I341" s="23">
         <f>VLOOKUP($A341, Map!$B:$D, 3, FALSE)</f>
         <v>123.4315</v>
       </c>
@@ -31769,11 +31772,11 @@
       <c r="E342">
         <v>36</v>
       </c>
-      <c r="H342">
+      <c r="H342" s="23">
         <f>VLOOKUP($A342, Map!$B:$D, 2, FALSE)</f>
         <v>24.880099999999999</v>
       </c>
-      <c r="I342">
+      <c r="I342" s="23">
         <f>VLOOKUP($A342, Map!$B:$D, 3, FALSE)</f>
         <v>102.8329</v>
       </c>
@@ -31834,11 +31837,11 @@
       <c r="G343">
         <v>1</v>
       </c>
-      <c r="H343">
+      <c r="H343" s="23">
         <f>VLOOKUP($A343, Map!$B:$D, 2, FALSE)</f>
         <v>45.803800000000003</v>
       </c>
-      <c r="I343">
+      <c r="I343" s="23">
         <f>VLOOKUP($A343, Map!$B:$D, 3, FALSE)</f>
         <v>126.535</v>
       </c>
@@ -31896,11 +31899,11 @@
       <c r="D344">
         <v>14</v>
       </c>
-      <c r="H344">
+      <c r="H344" s="23">
         <f>VLOOKUP($A344, Map!$B:$D, 2, FALSE)</f>
         <v>39.343400000000003</v>
       </c>
-      <c r="I344">
+      <c r="I344" s="23">
         <f>VLOOKUP($A344, Map!$B:$D, 3, FALSE)</f>
         <v>117.3616</v>
       </c>
@@ -31961,11 +31964,11 @@
       <c r="G345">
         <v>1</v>
       </c>
-      <c r="H345">
+      <c r="H345" s="23">
         <f>VLOOKUP($A345, Map!$B:$D, 2, FALSE)</f>
         <v>38.0428</v>
       </c>
-      <c r="I345">
+      <c r="I345" s="23">
         <f>VLOOKUP($A345, Map!$B:$D, 3, FALSE)</f>
         <v>114.5149</v>
       </c>
@@ -32023,11 +32026,11 @@
       <c r="D346">
         <v>9</v>
       </c>
-      <c r="H346">
+      <c r="H346" s="23">
         <f>VLOOKUP($A346, Map!$B:$D, 2, FALSE)</f>
         <v>37.870600000000003</v>
       </c>
-      <c r="I346">
+      <c r="I346" s="23">
         <f>VLOOKUP($A346, Map!$B:$D, 3, FALSE)</f>
         <v>112.5489</v>
       </c>
@@ -32088,11 +32091,11 @@
       <c r="E347">
         <v>244</v>
       </c>
-      <c r="H347">
+      <c r="H347" s="23">
         <f>VLOOKUP($A347, Map!$B:$D, 2, FALSE)</f>
         <v>22.319299999999998</v>
       </c>
-      <c r="I347">
+      <c r="I347" s="23">
         <f>VLOOKUP($A347, Map!$B:$D, 3, FALSE)</f>
         <v>114.1694</v>
       </c>
@@ -32125,11 +32128,11 @@
         <v>"0"</v>
       </c>
       <c r="T347" t="str">
-        <f t="shared" si="59"/>
+        <f>"""" &amp;TEXT(H347, "#.0000")&amp;""""</f>
         <v>"22.3193"</v>
       </c>
       <c r="U347" t="str">
-        <f t="shared" si="60"/>
+        <f>"""" &amp;TEXT(I347, "#.0000")&amp;""""</f>
         <v>"114.1694"</v>
       </c>
       <c r="V347" t="str">
@@ -32150,11 +32153,11 @@
       <c r="D348">
         <v>7</v>
       </c>
-      <c r="H348">
+      <c r="H348" s="23">
         <f>VLOOKUP($A348, Map!$B:$D, 2, FALSE)</f>
         <v>40.842399999999998</v>
       </c>
-      <c r="I348">
+      <c r="I348" s="23">
         <f>VLOOKUP($A348, Map!$B:$D, 3, FALSE)</f>
         <v>111.75</v>
       </c>
@@ -32187,16 +32190,16 @@
         <v>"0"</v>
       </c>
       <c r="T348" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="T348:T369" si="62">"""" &amp;TEXT(H348, "#.0000")&amp;""""</f>
         <v>"40.8424"</v>
       </c>
       <c r="U348" t="str">
-        <f t="shared" si="60"/>
-        <v>"111.75"</v>
+        <f t="shared" ref="U348:U369" si="63">"""" &amp;TEXT(I348, "#.0000")&amp;""""</f>
+        <v>"111.7500"</v>
       </c>
       <c r="V348" t="str">
         <f t="shared" si="61"/>
-        <v>["Inner Mongolia","Mainland China","2020-01-26 11:00:00","7","0","0","0","40.8424","111.75"],</v>
+        <v>["Inner Mongolia","Mainland China","2020-01-26 11:00:00","7","0","0","0","40.8424","111.7500"],</v>
       </c>
     </row>
     <row r="349" spans="1:22" x14ac:dyDescent="0.2">
@@ -32212,11 +32215,11 @@
       <c r="D349">
         <v>7</v>
       </c>
-      <c r="H349">
+      <c r="H349" s="23">
         <f>VLOOKUP($A349, Map!$B:$D, 2, FALSE)</f>
         <v>36.061100000000003</v>
       </c>
-      <c r="I349">
+      <c r="I349" s="23">
         <f>VLOOKUP($A349, Map!$B:$D, 3, FALSE)</f>
         <v>103.8343</v>
       </c>
@@ -32249,11 +32252,11 @@
         <v>"0"</v>
       </c>
       <c r="T349" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"36.0611"</v>
       </c>
       <c r="U349" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"103.8343"</v>
       </c>
       <c r="V349" t="str">
@@ -32274,11 +32277,11 @@
       <c r="D350">
         <v>5</v>
       </c>
-      <c r="H350">
+      <c r="H350" s="23">
         <f>VLOOKUP($A350, Map!$B:$D, 2, FALSE)</f>
         <v>26.6477</v>
       </c>
-      <c r="I350">
+      <c r="I350" s="23">
         <f>VLOOKUP($A350, Map!$B:$D, 3, FALSE)</f>
         <v>106.6302</v>
       </c>
@@ -32311,11 +32314,11 @@
         <v>"0"</v>
       </c>
       <c r="T350" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"26.6477"</v>
       </c>
       <c r="U350" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"106.6302"</v>
       </c>
       <c r="V350" t="str">
@@ -32336,11 +32339,11 @@
       <c r="D351">
         <v>5</v>
       </c>
-      <c r="H351">
+      <c r="H351" s="23">
         <f>VLOOKUP($A351, Map!$B:$D, 2, FALSE)</f>
         <v>22.198699999999999</v>
       </c>
-      <c r="I351">
+      <c r="I351" s="23">
         <f>VLOOKUP($A351, Map!$B:$D, 3, FALSE)</f>
         <v>113.54389999999999</v>
       </c>
@@ -32373,11 +32376,11 @@
         <v>"0"</v>
       </c>
       <c r="T351" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"22.1987"</v>
       </c>
       <c r="U351" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"113.5439"</v>
       </c>
       <c r="V351" t="str">
@@ -32398,11 +32401,11 @@
       <c r="D352">
         <v>4</v>
       </c>
-      <c r="H352">
+      <c r="H352" s="23">
         <f>VLOOKUP($A352, Map!$B:$D, 2, FALSE)</f>
         <v>38.487200000000001</v>
       </c>
-      <c r="I352">
+      <c r="I352" s="23">
         <f>VLOOKUP($A352, Map!$B:$D, 3, FALSE)</f>
         <v>106.23090000000001</v>
       </c>
@@ -32435,11 +32438,11 @@
         <v>"0"</v>
       </c>
       <c r="T352" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"38.4872"</v>
       </c>
       <c r="U352" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"106.2309"</v>
       </c>
       <c r="V352" t="str">
@@ -32460,11 +32463,11 @@
       <c r="D353">
         <v>4</v>
       </c>
-      <c r="H353">
+      <c r="H353" s="23">
         <f>VLOOKUP($A353, Map!$B:$D, 2, FALSE)</f>
         <v>43.817100000000003</v>
       </c>
-      <c r="I353">
+      <c r="I353" s="23">
         <f>VLOOKUP($A353, Map!$B:$D, 3, FALSE)</f>
         <v>125.3235</v>
       </c>
@@ -32497,11 +32500,11 @@
         <v>"0"</v>
       </c>
       <c r="T353" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"43.8171"</v>
       </c>
       <c r="U353" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"125.3235"</v>
       </c>
       <c r="V353" t="str">
@@ -32522,11 +32525,11 @@
       <c r="D354">
         <v>4</v>
       </c>
-      <c r="H354">
+      <c r="H354" s="23">
         <f>VLOOKUP($A354, Map!$B:$D, 2, FALSE)</f>
         <v>25.033000000000001</v>
       </c>
-      <c r="I354">
+      <c r="I354" s="23">
         <f>VLOOKUP($A354, Map!$B:$D, 3, FALSE)</f>
         <v>121.5654</v>
       </c>
@@ -32559,16 +32562,16 @@
         <v>"0"</v>
       </c>
       <c r="T354" t="str">
-        <f t="shared" si="59"/>
-        <v>"25.033"</v>
+        <f t="shared" si="62"/>
+        <v>"25.0330"</v>
       </c>
       <c r="U354" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"121.5654"</v>
       </c>
       <c r="V354" t="str">
         <f t="shared" si="61"/>
-        <v>["Taiwan","Taiwan","2020-01-26 11:00:00","4","0","0","0","25.033","121.5654"],</v>
+        <v>["Taiwan","Taiwan","2020-01-26 11:00:00","4","0","0","0","25.0330","121.5654"],</v>
       </c>
     </row>
     <row r="355" spans="1:22" x14ac:dyDescent="0.2">
@@ -32584,11 +32587,11 @@
       <c r="D355">
         <v>4</v>
       </c>
-      <c r="H355">
+      <c r="H355" s="23">
         <f>VLOOKUP($A355, Map!$B:$D, 2, FALSE)</f>
         <v>43.825600000000001</v>
       </c>
-      <c r="I355">
+      <c r="I355" s="23">
         <f>VLOOKUP($A355, Map!$B:$D, 3, FALSE)</f>
         <v>87.616799999999998</v>
       </c>
@@ -32621,11 +32624,11 @@
         <v>"0"</v>
       </c>
       <c r="T355" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"43.8256"</v>
       </c>
       <c r="U355" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"87.6168"</v>
       </c>
       <c r="V355" t="str">
@@ -32646,11 +32649,11 @@
       <c r="D356">
         <v>1</v>
       </c>
-      <c r="H356">
+      <c r="H356" s="23">
         <f>VLOOKUP($A356, Map!$B:$D, 2, FALSE)</f>
         <v>36.617100000000001</v>
       </c>
-      <c r="I356">
+      <c r="I356" s="23">
         <f>VLOOKUP($A356, Map!$B:$D, 3, FALSE)</f>
         <v>101.7782</v>
       </c>
@@ -32683,11 +32686,11 @@
         <v>"0"</v>
       </c>
       <c r="T356" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"36.6171"</v>
       </c>
       <c r="U356" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"101.7782"</v>
       </c>
       <c r="V356" t="str">
@@ -32708,11 +32711,11 @@
       <c r="D357">
         <v>1</v>
       </c>
-      <c r="H357">
+      <c r="H357" s="23">
         <f>VLOOKUP($A357, Map!$B:$D, 2, FALSE)</f>
         <v>47.751100000000001</v>
       </c>
-      <c r="I357">
+      <c r="I357" s="23">
         <f>VLOOKUP($A357, Map!$B:$D, 3, FALSE)</f>
         <v>-120.74</v>
       </c>
@@ -32745,16 +32748,16 @@
         <v>"0"</v>
       </c>
       <c r="T357" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"47.7511"</v>
       </c>
       <c r="U357" t="str">
-        <f t="shared" si="60"/>
-        <v>"-120.74"</v>
+        <f t="shared" si="63"/>
+        <v>"-120.7400"</v>
       </c>
       <c r="V357" t="str">
         <f t="shared" si="61"/>
-        <v>["Washington","US","2020-01-26 11:00:00","1","0","0","0","47.7511","-120.74"],</v>
+        <v>["Washington","US","2020-01-26 11:00:00","1","0","0","0","47.7511","-120.7400"],</v>
       </c>
     </row>
     <row r="358" spans="1:22" x14ac:dyDescent="0.2">
@@ -32770,11 +32773,11 @@
       <c r="D358">
         <v>1</v>
       </c>
-      <c r="H358">
+      <c r="H358" s="23">
         <f>VLOOKUP($A358, Map!$B:$D, 2, FALSE)</f>
         <v>40.633099999999999</v>
       </c>
-      <c r="I358">
+      <c r="I358" s="23">
         <f>VLOOKUP($A358, Map!$B:$D, 3, FALSE)</f>
         <v>-89.398499999999999</v>
       </c>
@@ -32807,11 +32810,11 @@
         <v>"0"</v>
       </c>
       <c r="T358" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"40.6331"</v>
       </c>
       <c r="U358" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"-89.3985"</v>
       </c>
       <c r="V358" t="str">
@@ -32832,11 +32835,11 @@
       <c r="D359">
         <v>1</v>
       </c>
-      <c r="H359">
+      <c r="H359" s="23">
         <f>VLOOKUP($A359, Map!$B:$D, 2, FALSE)</f>
         <v>36.778300000000002</v>
       </c>
-      <c r="I359">
+      <c r="I359" s="23">
         <f>VLOOKUP($A359, Map!$B:$D, 3, FALSE)</f>
         <v>-119.417</v>
       </c>
@@ -32869,16 +32872,16 @@
         <v>"0"</v>
       </c>
       <c r="T359" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"36.7783"</v>
       </c>
       <c r="U359" t="str">
-        <f t="shared" si="60"/>
-        <v>"-119.417"</v>
+        <f t="shared" si="63"/>
+        <v>"-119.4170"</v>
       </c>
       <c r="V359" t="str">
         <f t="shared" si="61"/>
-        <v>["California","US","2020-01-26 11:00:00","1","0","0","0","36.7783","-119.417"],</v>
+        <v>["California","US","2020-01-26 11:00:00","1","0","0","0","36.7783","-119.4170"],</v>
       </c>
     </row>
     <row r="360" spans="1:22" x14ac:dyDescent="0.2">
@@ -32897,11 +32900,11 @@
       <c r="F360">
         <v>1</v>
       </c>
-      <c r="H360">
+      <c r="H360" s="23">
         <f>VLOOKUP($A360, Map!$B:$D, 2, FALSE)</f>
         <v>35.676200000000001</v>
       </c>
-      <c r="I360">
+      <c r="I360" s="23">
         <f>VLOOKUP($A360, Map!$B:$D, 3, FALSE)</f>
         <v>139.65029999999999</v>
       </c>
@@ -32934,11 +32937,11 @@
         <v>"0"</v>
       </c>
       <c r="T360" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"35.6762"</v>
       </c>
       <c r="U360" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"139.6503"</v>
       </c>
       <c r="V360" t="str">
@@ -32962,11 +32965,11 @@
       <c r="F361">
         <v>2</v>
       </c>
-      <c r="H361">
+      <c r="H361" s="23">
         <f>VLOOKUP($A361, Map!$B:$D, 2, FALSE)</f>
         <v>13.7563</v>
       </c>
-      <c r="I361">
+      <c r="I361" s="23">
         <f>VLOOKUP($A361, Map!$B:$D, 3, FALSE)</f>
         <v>100.5018</v>
       </c>
@@ -32999,11 +33002,11 @@
         <v>"0"</v>
       </c>
       <c r="T361" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"13.7563"</v>
       </c>
       <c r="U361" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"100.5018"</v>
       </c>
       <c r="V361" t="str">
@@ -33024,11 +33027,11 @@
       <c r="D362">
         <v>3</v>
       </c>
-      <c r="H362">
+      <c r="H362" s="23">
         <f>VLOOKUP($A362, Map!$B:$D, 2, FALSE)</f>
         <v>37.566499999999998</v>
       </c>
-      <c r="I362">
+      <c r="I362" s="23">
         <f>VLOOKUP($A362, Map!$B:$D, 3, FALSE)</f>
         <v>126.97799999999999</v>
       </c>
@@ -33061,16 +33064,16 @@
         <v>"0"</v>
       </c>
       <c r="T362" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"37.5665"</v>
       </c>
       <c r="U362" t="str">
-        <f t="shared" si="60"/>
-        <v>"126.978"</v>
+        <f t="shared" si="63"/>
+        <v>"126.9780"</v>
       </c>
       <c r="V362" t="str">
         <f t="shared" si="61"/>
-        <v>["Seoul","South Korea","2020-01-26 11:00:00","3","0","0","0","37.5665","126.978"],</v>
+        <v>["Seoul","South Korea","2020-01-26 11:00:00","3","0","0","0","37.5665","126.9780"],</v>
       </c>
     </row>
     <row r="363" spans="1:22" x14ac:dyDescent="0.2">
@@ -33086,11 +33089,11 @@
       <c r="D363">
         <v>4</v>
       </c>
-      <c r="H363">
+      <c r="H363" s="23">
         <f>VLOOKUP($A363, Map!$B:$D, 2, FALSE)</f>
         <v>1.3521000000000001</v>
       </c>
-      <c r="I363">
+      <c r="I363" s="23">
         <f>VLOOKUP($A363, Map!$B:$D, 3, FALSE)</f>
         <v>103.8198</v>
       </c>
@@ -33123,11 +33126,11 @@
         <v>"0"</v>
       </c>
       <c r="T363" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"1.3521"</v>
       </c>
       <c r="U363" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"103.8198"</v>
       </c>
       <c r="V363" t="str">
@@ -33148,11 +33151,11 @@
       <c r="D364">
         <v>2</v>
       </c>
-      <c r="H364">
+      <c r="H364" s="23">
         <f>VLOOKUP($A364, Map!$B:$D, 2, FALSE)</f>
         <v>21.027799999999999</v>
       </c>
-      <c r="I364">
+      <c r="I364" s="23">
         <f>VLOOKUP($A364, Map!$B:$D, 3, FALSE)</f>
         <v>105.8342</v>
       </c>
@@ -33185,11 +33188,11 @@
         <v>"0"</v>
       </c>
       <c r="T364" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"21.0278"</v>
       </c>
       <c r="U364" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"105.8342"</v>
       </c>
       <c r="V364" t="str">
@@ -33210,11 +33213,11 @@
       <c r="D365">
         <v>3</v>
       </c>
-      <c r="H365">
+      <c r="H365" s="23">
         <f>VLOOKUP($A365, Map!$B:$D, 2, FALSE)</f>
         <v>48.8566</v>
       </c>
-      <c r="I365">
+      <c r="I365" s="23">
         <f>VLOOKUP($A365, Map!$B:$D, 3, FALSE)</f>
         <v>2.3521999999999998</v>
       </c>
@@ -33247,11 +33250,11 @@
         <v>"0"</v>
       </c>
       <c r="T365" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"48.8566"</v>
       </c>
       <c r="U365" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"2.3522"</v>
       </c>
       <c r="V365" t="str">
@@ -33272,11 +33275,11 @@
       <c r="D366">
         <v>4</v>
       </c>
-      <c r="H366">
+      <c r="H366" s="23">
         <f>VLOOKUP($A366, Map!$B:$D, 2, FALSE)</f>
         <v>-37.813600000000001</v>
       </c>
-      <c r="I366">
+      <c r="I366" s="23">
         <f>VLOOKUP($A366, Map!$B:$D, 3, FALSE)</f>
         <v>144.9631</v>
       </c>
@@ -33309,11 +33312,11 @@
         <v>"0"</v>
       </c>
       <c r="T366" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"-37.8136"</v>
       </c>
       <c r="U366" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"144.9631"</v>
       </c>
       <c r="V366" t="str">
@@ -33334,11 +33337,11 @@
       <c r="D367">
         <v>1</v>
       </c>
-      <c r="H367">
+      <c r="H367" s="23">
         <f>VLOOKUP($A367, Map!$B:$D, 2, FALSE)</f>
         <v>27.717199999999998</v>
       </c>
-      <c r="I367">
+      <c r="I367" s="23">
         <f>VLOOKUP($A367, Map!$B:$D, 3, FALSE)</f>
         <v>85.323999999999998</v>
       </c>
@@ -33371,16 +33374,16 @@
         <v>"0"</v>
       </c>
       <c r="T367" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"27.7172"</v>
       </c>
       <c r="U367" t="str">
-        <f t="shared" si="60"/>
-        <v>"85.324"</v>
+        <f t="shared" si="63"/>
+        <v>"85.3240"</v>
       </c>
       <c r="V367" t="str">
         <f t="shared" si="61"/>
-        <v>["Kathmandu","Nepal","2020-01-26 11:00:00","1","0","0","0","27.7172","85.324"],</v>
+        <v>["Kathmandu","Nepal","2020-01-26 11:00:00","1","0","0","0","27.7172","85.3240"],</v>
       </c>
     </row>
     <row r="368" spans="1:22" x14ac:dyDescent="0.2">
@@ -33396,11 +33399,11 @@
       <c r="D368">
         <v>4</v>
       </c>
-      <c r="H368">
+      <c r="H368" s="23">
         <f>VLOOKUP($A368, Map!$B:$D, 2, FALSE)</f>
         <v>3.1389999999999998</v>
       </c>
-      <c r="I368">
+      <c r="I368" s="23">
         <f>VLOOKUP($A368, Map!$B:$D, 3, FALSE)</f>
         <v>101.68689999999999</v>
       </c>
@@ -33433,16 +33436,16 @@
         <v>"0"</v>
       </c>
       <c r="T368" t="str">
-        <f t="shared" si="59"/>
-        <v>"3.139"</v>
+        <f t="shared" si="62"/>
+        <v>"3.1390"</v>
       </c>
       <c r="U368" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"101.6869"</v>
       </c>
       <c r="V368" t="str">
         <f t="shared" si="61"/>
-        <v>["Kuala Lumpur","Malaysia","2020-01-26 11:00:00","4","0","0","0","3.139","101.6869"],</v>
+        <v>["Kuala Lumpur","Malaysia","2020-01-26 11:00:00","4","0","0","0","3.1390","101.6869"],</v>
       </c>
     </row>
     <row r="369" spans="1:22" x14ac:dyDescent="0.2">
@@ -33458,11 +33461,11 @@
       <c r="D369">
         <v>1</v>
       </c>
-      <c r="H369">
+      <c r="H369" s="23">
         <f>VLOOKUP($A369, Map!$B:$D, 2, FALSE)</f>
         <v>43.653199999999998</v>
       </c>
-      <c r="I369">
+      <c r="I369" s="23">
         <f>VLOOKUP($A369, Map!$B:$D, 3, FALSE)</f>
         <v>-79.383200000000002</v>
       </c>
@@ -33495,11 +33498,11 @@
         <v>"0"</v>
       </c>
       <c r="T369" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>"43.6532"</v>
       </c>
       <c r="U369" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>"-79.3832"</v>
       </c>
       <c r="V369" t="str">
